--- a/giyimma.xlsx
+++ b/giyimma.xlsx
@@ -80,7 +80,7 @@
         <v>42705.0</v>
       </c>
       <c r="B2" t="n">
-        <v>188.7003454667243</v>
+        <v>188.73168177695516</v>
       </c>
     </row>
     <row r="3">
@@ -88,7 +88,7 @@
         <v>42736.0</v>
       </c>
       <c r="B3" t="n">
-        <v>189.93324716092957</v>
+        <v>190.09980803941238</v>
       </c>
     </row>
     <row r="4">
@@ -96,7 +96,7 @@
         <v>42767.0</v>
       </c>
       <c r="B4" t="n">
-        <v>192.1614159973261</v>
+        <v>192.12906553609753</v>
       </c>
     </row>
     <row r="5">
@@ -104,7 +104,7 @@
         <v>42795.0</v>
       </c>
       <c r="B5" t="n">
-        <v>194.52655558593756</v>
+        <v>194.27448958142202</v>
       </c>
     </row>
     <row r="6">
@@ -112,7 +112,7 @@
         <v>42826.0</v>
       </c>
       <c r="B6" t="n">
-        <v>196.28495553849345</v>
+        <v>195.67519494381744</v>
       </c>
     </row>
     <row r="7">
@@ -120,7 +120,7 @@
         <v>42856.0</v>
       </c>
       <c r="B7" t="n">
-        <v>198.6035304620785</v>
+        <v>197.84459465784278</v>
       </c>
     </row>
     <row r="8">
@@ -128,7 +128,7 @@
         <v>42887.0</v>
       </c>
       <c r="B8" t="n">
-        <v>200.23655114229882</v>
+        <v>199.5376391358184</v>
       </c>
     </row>
     <row r="9">
@@ -136,7 +136,7 @@
         <v>42917.0</v>
       </c>
       <c r="B9" t="n">
-        <v>201.73376430427123</v>
+        <v>201.21050342295223</v>
       </c>
     </row>
     <row r="10">
@@ -144,7 +144,7 @@
         <v>42948.0</v>
       </c>
       <c r="B10" t="n">
-        <v>202.47285645665798</v>
+        <v>202.48509978442266</v>
       </c>
     </row>
     <row r="11">
@@ -152,7 +152,7 @@
         <v>42979.0</v>
       </c>
       <c r="B11" t="n">
-        <v>202.6516280799699</v>
+        <v>203.2409943978926</v>
       </c>
     </row>
     <row r="12">
@@ -160,7 +160,7 @@
         <v>43009.0</v>
       </c>
       <c r="B12" t="n">
-        <v>204.11158793746597</v>
+        <v>204.79261201933917</v>
       </c>
     </row>
     <row r="13">
@@ -168,7 +168,7 @@
         <v>43040.0</v>
       </c>
       <c r="B13" t="n">
-        <v>206.88732129143142</v>
+        <v>207.28576909200763</v>
       </c>
     </row>
     <row r="14">
@@ -176,7 +176,7 @@
         <v>43070.0</v>
       </c>
       <c r="B14" t="n">
-        <v>209.74473346021944</v>
+        <v>209.93982211181222</v>
       </c>
     </row>
     <row r="15">
@@ -184,7 +184,7 @@
         <v>43101.0</v>
       </c>
       <c r="B15" t="n">
-        <v>212.92837153733535</v>
+        <v>213.06577359454155</v>
       </c>
     </row>
     <row r="16">
@@ -192,7 +192,7 @@
         <v>43132.0</v>
       </c>
       <c r="B16" t="n">
-        <v>214.7377220031287</v>
+        <v>215.1758487034008</v>
       </c>
     </row>
     <row r="17">
@@ -200,7 +200,7 @@
         <v>43160.0</v>
       </c>
       <c r="B17" t="n">
-        <v>216.27978351095135</v>
+        <v>216.84563877972604</v>
       </c>
     </row>
     <row r="18">
@@ -208,7 +208,7 @@
         <v>43191.0</v>
       </c>
       <c r="B18" t="n">
-        <v>221.70753387205824</v>
+        <v>221.48055732589594</v>
       </c>
     </row>
     <row r="19">
@@ -216,7 +216,7 @@
         <v>43221.0</v>
       </c>
       <c r="B19" t="n">
-        <v>223.31007243481133</v>
+        <v>223.24822618023165</v>
       </c>
     </row>
     <row r="20">
@@ -224,7 +224,7 @@
         <v>43252.0</v>
       </c>
       <c r="B20" t="n">
-        <v>225.22297771287649</v>
+        <v>225.4924252883869</v>
       </c>
     </row>
     <row r="21">
@@ -232,7 +232,7 @@
         <v>43282.0</v>
       </c>
       <c r="B21" t="n">
-        <v>227.32519023101997</v>
+        <v>227.68318359054797</v>
       </c>
     </row>
     <row r="22">
@@ -240,7 +240,7 @@
         <v>43313.0</v>
       </c>
       <c r="B22" t="n">
-        <v>229.78534994938343</v>
+        <v>229.84843258424706</v>
       </c>
     </row>
     <row r="23">
@@ -248,7 +248,7 @@
         <v>43344.0</v>
       </c>
       <c r="B23" t="n">
-        <v>234.67912738327556</v>
+        <v>233.7003441305649</v>
       </c>
     </row>
     <row r="24">
@@ -256,7 +256,7 @@
         <v>43374.0</v>
       </c>
       <c r="B24" t="n">
-        <v>238.21910871011772</v>
+        <v>236.23926022349605</v>
       </c>
     </row>
     <row r="25">
@@ -264,7 +264,7 @@
         <v>43405.0</v>
       </c>
       <c r="B25" t="n">
-        <v>239.1208190970508</v>
+        <v>237.17700527764333</v>
       </c>
     </row>
     <row r="26">
@@ -272,7 +272,7 @@
         <v>43435.0</v>
       </c>
       <c r="B26" t="n">
-        <v>238.4490899018697</v>
+        <v>237.07799969363367</v>
       </c>
     </row>
     <row r="27">
@@ -280,7 +280,7 @@
         <v>43466.0</v>
       </c>
       <c r="B27" t="n">
-        <v>237.39225060978518</v>
+        <v>236.888440797115</v>
       </c>
     </row>
     <row r="28">
@@ -288,7 +288,7 @@
         <v>43497.0</v>
       </c>
       <c r="B28" t="n">
-        <v>237.52001055842572</v>
+        <v>237.58914716501087</v>
       </c>
     </row>
     <row r="29">
@@ -296,7 +296,7 @@
         <v>43525.0</v>
       </c>
       <c r="B29" t="n">
-        <v>238.15884330288745</v>
+        <v>238.38560070949936</v>
       </c>
     </row>
     <row r="30">
@@ -304,7 +304,7 @@
         <v>43556.0</v>
       </c>
       <c r="B30" t="n">
-        <v>237.05497138677603</v>
+        <v>237.91653777563252</v>
       </c>
     </row>
     <row r="31">
@@ -312,7 +312,7 @@
         <v>43586.0</v>
       </c>
       <c r="B31" t="n">
-        <v>236.25868139241007</v>
+        <v>237.6306446075104</v>
       </c>
     </row>
     <row r="32">
@@ -320,7 +320,7 @@
         <v>43617.0</v>
       </c>
       <c r="B32" t="n">
-        <v>236.01265901572262</v>
+        <v>237.50613149896327</v>
       </c>
     </row>
     <row r="33">
@@ -328,7 +328,7 @@
         <v>43647.0</v>
       </c>
       <c r="B33" t="n">
-        <v>237.07887543500175</v>
+        <v>238.59482433233103</v>
       </c>
     </row>
     <row r="34">
@@ -336,7 +336,7 @@
         <v>43678.0</v>
       </c>
       <c r="B34" t="n">
-        <v>239.6668453615117</v>
+        <v>240.57246323876257</v>
       </c>
     </row>
     <row r="35">
@@ -344,7 +344,7 @@
         <v>43709.0</v>
       </c>
       <c r="B35" t="n">
-        <v>241.60200507190305</v>
+        <v>241.78769724827688</v>
       </c>
     </row>
     <row r="36">
@@ -352,7 +352,7 @@
         <v>43739.0</v>
       </c>
       <c r="B36" t="n">
-        <v>245.38530147176897</v>
+        <v>244.76222528787952</v>
       </c>
     </row>
     <row r="37">
@@ -360,7 +360,7 @@
         <v>43770.0</v>
       </c>
       <c r="B37" t="n">
-        <v>247.57559696260057</v>
+        <v>246.28193816117707</v>
       </c>
     </row>
     <row r="38">
@@ -368,7 +368,7 @@
         <v>43800.0</v>
       </c>
       <c r="B38" t="n">
-        <v>250.62574631779026</v>
+        <v>249.022057705013</v>
       </c>
     </row>
     <row r="39">
@@ -376,7 +376,7 @@
         <v>43831.0</v>
       </c>
       <c r="B39" t="n">
-        <v>250.52429839947575</v>
+        <v>249.57655133178116</v>
       </c>
     </row>
     <row r="40">
@@ -384,7 +384,7 @@
         <v>43862.0</v>
       </c>
       <c r="B40" t="n">
-        <v>249.02225810306905</v>
+        <v>248.8036954245694</v>
       </c>
     </row>
     <row r="41">
@@ -392,7 +392,7 @@
         <v>43891.0</v>
       </c>
       <c r="B41" t="n">
-        <v>250.18910698724886</v>
+        <v>250.14968601100222</v>
       </c>
     </row>
     <row r="42">
@@ -400,7 +400,7 @@
         <v>43922.0</v>
       </c>
       <c r="B42" t="n">
-        <v>248.11500059184073</v>
+        <v>248.87155782241723</v>
       </c>
     </row>
     <row r="43">
@@ -408,7 +408,7 @@
         <v>43952.0</v>
       </c>
       <c r="B43" t="n">
-        <v>252.06592765061876</v>
+        <v>252.13399116919527</v>
       </c>
     </row>
     <row r="44">
@@ -416,7 +416,7 @@
         <v>43983.0</v>
       </c>
       <c r="B44" t="n">
-        <v>256.6415120088062</v>
+        <v>255.50193958681123</v>
       </c>
     </row>
     <row r="45">
@@ -424,7 +424,7 @@
         <v>44013.0</v>
       </c>
       <c r="B45" t="n">
-        <v>256.4628616928576</v>
+        <v>255.71012595116662</v>
       </c>
     </row>
     <row r="46">
@@ -432,7 +432,7 @@
         <v>44044.0</v>
       </c>
       <c r="B46" t="n">
-        <v>257.5534466782223</v>
+        <v>257.04603701809566</v>
       </c>
     </row>
     <row r="47">
@@ -440,7 +440,7 @@
         <v>44075.0</v>
       </c>
       <c r="B47" t="n">
-        <v>257.57641202599615</v>
+        <v>257.58188054852485</v>
       </c>
     </row>
     <row r="48">
@@ -448,7 +448,7 @@
         <v>44105.0</v>
       </c>
       <c r="B48" t="n">
-        <v>255.3830628048929</v>
+        <v>256.47648338252554</v>
       </c>
     </row>
     <row r="49">
@@ -456,7 +456,7 @@
         <v>44136.0</v>
       </c>
       <c r="B49" t="n">
-        <v>257.0388360700862</v>
+        <v>257.91303349786114</v>
       </c>
     </row>
     <row r="50">
@@ -464,7 +464,7 @@
         <v>44166.0</v>
       </c>
       <c r="B50" t="n">
-        <v>256.4699145449599</v>
+        <v>257.8224558752299</v>
       </c>
     </row>
     <row r="51">
@@ -472,7 +472,7 @@
         <v>44197.0</v>
       </c>
       <c r="B51" t="n">
-        <v>257.9345126110857</v>
+        <v>258.96566669170664</v>
       </c>
     </row>
     <row r="52">
@@ -480,7 +480,7 @@
         <v>44228.0</v>
       </c>
       <c r="B52" t="n">
-        <v>262.4837415714853</v>
+        <v>262.5075302614843</v>
       </c>
     </row>
     <row r="53">
@@ -488,7 +488,7 @@
         <v>44256.0</v>
       </c>
       <c r="B53" t="n">
-        <v>265.9800476223412</v>
+        <v>264.9034769127865</v>
       </c>
     </row>
     <row r="54">
@@ -496,7 +496,7 @@
         <v>44287.0</v>
       </c>
       <c r="B54" t="n">
-        <v>271.4435153008112</v>
+        <v>269.3147388375008</v>
       </c>
     </row>
     <row r="55">
@@ -504,7 +504,7 @@
         <v>44317.0</v>
       </c>
       <c r="B55" t="n">
-        <v>263.590027049772</v>
+        <v>262.010974197032</v>
       </c>
     </row>
     <row r="56">
@@ -512,7 +512,7 @@
         <v>44348.0</v>
       </c>
       <c r="B56" t="n">
-        <v>273.8580327236091</v>
+        <v>272.26824054461355</v>
       </c>
     </row>
     <row r="57">
@@ -520,7 +520,7 @@
         <v>44378.0</v>
       </c>
       <c r="B57" t="n">
-        <v>275.1706852719705</v>
+        <v>274.1181390111354</v>
       </c>
     </row>
     <row r="58">
@@ -528,7 +528,7 @@
         <v>44409.0</v>
       </c>
       <c r="B58" t="n">
-        <v>274.19674384282365</v>
+        <v>274.35186243822807</v>
       </c>
     </row>
     <row r="59">
@@ -536,7 +536,7 @@
         <v>44440.0</v>
       </c>
       <c r="B59" t="n">
-        <v>275.7259849424845</v>
+        <v>276.9206841614065</v>
       </c>
     </row>
     <row r="60">
@@ -544,7 +544,7 @@
         <v>44470.0</v>
       </c>
       <c r="B60" t="n">
-        <v>277.1819979013118</v>
+        <v>279.7008317984463</v>
       </c>
     </row>
     <row r="61">
@@ -552,7 +552,7 @@
         <v>44501.0</v>
       </c>
       <c r="B61" t="n">
-        <v>282.9497579435224</v>
+        <v>285.21455911567926</v>
       </c>
     </row>
     <row r="62">
@@ -560,7 +560,7 @@
         <v>44531.0</v>
       </c>
       <c r="B62" t="n">
-        <v>311.36379444000096</v>
+        <v>313.95687611529155</v>
       </c>
     </row>
     <row r="63">
@@ -568,7 +568,7 @@
         <v>44562.0</v>
       </c>
       <c r="B63" t="n">
-        <v>321.1842900479828</v>
+        <v>321.9752071472749</v>
       </c>
     </row>
     <row r="64">
@@ -576,7 +576,7 @@
         <v>44593.0</v>
       </c>
       <c r="B64" t="n">
-        <v>329.5146882068103</v>
+        <v>328.7625148481505</v>
       </c>
     </row>
     <row r="65">
@@ -584,7 +584,7 @@
         <v>44621.0</v>
       </c>
       <c r="B65" t="n">
-        <v>337.07139541888165</v>
+        <v>335.6811839348222</v>
       </c>
     </row>
     <row r="66">
@@ -592,7 +592,7 @@
         <v>44652.0</v>
       </c>
       <c r="B66" t="n">
-        <v>345.24909725966916</v>
+        <v>343.1496386942744</v>
       </c>
     </row>
     <row r="67">
@@ -600,7 +600,7 @@
         <v>44682.0</v>
       </c>
       <c r="B67" t="n">
-        <v>345.2213814848015</v>
+        <v>344.93339702245754</v>
       </c>
     </row>
     <row r="68">
@@ -608,7 +608,7 @@
         <v>44713.0</v>
       </c>
       <c r="B68" t="n">
-        <v>351.06680573486534</v>
+        <v>350.98762704804653</v>
       </c>
     </row>
     <row r="69">
@@ -616,7 +616,7 @@
         <v>44743.0</v>
       </c>
       <c r="B69" t="n">
-        <v>360.73778782810217</v>
+        <v>358.71344459281494</v>
       </c>
     </row>
     <row r="70">
@@ -624,7 +624,7 @@
         <v>44774.0</v>
       </c>
       <c r="B70" t="n">
-        <v>370.2261638648334</v>
+        <v>367.1819945181043</v>
       </c>
     </row>
     <row r="71">
@@ -632,7 +632,7 @@
         <v>44805.0</v>
       </c>
       <c r="B71" t="n">
-        <v>376.3926669185601</v>
+        <v>373.64065434753627</v>
       </c>
     </row>
     <row r="72">
@@ -640,7 +640,7 @@
         <v>44835.0</v>
       </c>
       <c r="B72" t="n">
-        <v>378.30136158582934</v>
+        <v>377.29871575898966</v>
       </c>
     </row>
     <row r="73">
@@ -648,7 +648,7 @@
         <v>44866.0</v>
       </c>
       <c r="B73" t="n">
-        <v>380.433226017798</v>
+        <v>380.99281184596737</v>
       </c>
     </row>
     <row r="74">
@@ -656,7 +656,7 @@
         <v>44896.0</v>
       </c>
       <c r="B74" t="n">
-        <v>386.0505237662215</v>
+        <v>387.2651832977544</v>
       </c>
     </row>
     <row r="75">
@@ -664,7 +664,7 @@
         <v>44927.0</v>
       </c>
       <c r="B75" t="n">
-        <v>393.7466311342809</v>
+        <v>393.9019532950752</v>
       </c>
     </row>
     <row r="76">
@@ -672,7 +672,7 @@
         <v>44958.0</v>
       </c>
       <c r="B76" t="n">
-        <v>398.5613582495345</v>
+        <v>398.3439174330474</v>
       </c>
     </row>
     <row r="77">
@@ -680,7 +680,7 @@
         <v>44986.0</v>
       </c>
       <c r="B77" t="n">
-        <v>398.7715140129014</v>
+        <v>400.11930855301836</v>
       </c>
     </row>
     <row r="78">
@@ -688,7 +688,7 @@
         <v>45017.0</v>
       </c>
       <c r="B78" t="n">
-        <v>402.52919274924466</v>
+        <v>405.1903309896111</v>
       </c>
     </row>
     <row r="79">
@@ -696,7 +696,7 @@
         <v>45047.0</v>
       </c>
       <c r="B79" t="n">
-        <v>415.68909130380246</v>
+        <v>417.7618374577175</v>
       </c>
     </row>
     <row r="80">
@@ -704,7 +704,7 @@
         <v>45078.0</v>
       </c>
       <c r="B80" t="n">
-        <v>427.0792310733147</v>
+        <v>428.36984633480637</v>
       </c>
     </row>
     <row r="81">
@@ -712,7 +712,7 @@
         <v>45108.0</v>
       </c>
       <c r="B81" t="n">
-        <v>444.33353870812147</v>
+        <v>443.7871818914236</v>
       </c>
     </row>
     <row r="82">
@@ -720,7 +720,7 @@
         <v>45139.0</v>
       </c>
       <c r="B82" t="n">
-        <v>485.48756590043433</v>
+        <v>484.66010405690463</v>
       </c>
     </row>
     <row r="83">
@@ -728,7 +728,7 @@
         <v>45170.0</v>
       </c>
       <c r="B83" t="n">
-        <v>495.75603143512905</v>
+        <v>495.82432845801924</v>
       </c>
     </row>
     <row r="84">
@@ -736,7 +736,7 @@
         <v>45200.0</v>
       </c>
       <c r="B84" t="n">
-        <v>512.0971733666554</v>
+        <v>511.75795846040825</v>
       </c>
     </row>
     <row r="85">
@@ -744,7 +744,7 @@
         <v>45231.0</v>
       </c>
       <c r="B85" t="n">
-        <v>522.6992430941508</v>
+        <v>524.5966242498458</v>
       </c>
     </row>
     <row r="86">
@@ -752,7 +752,7 @@
         <v>45261.0</v>
       </c>
       <c r="B86" t="n">
-        <v>532.0996403433173</v>
+        <v>535.8806202409212</v>
       </c>
     </row>
     <row r="87">
@@ -760,7 +760,7 @@
         <v>45292.0</v>
       </c>
       <c r="B87" t="n">
-        <v>547.5015309616864</v>
+        <v>552.9634752514638</v>
       </c>
     </row>
     <row r="88">
@@ -768,7 +768,7 @@
         <v>45323.0</v>
       </c>
       <c r="B88" t="n">
-        <v>567.5865775573214</v>
+        <v>562.6858036744894</v>
       </c>
     </row>
     <row r="89">
@@ -776,7 +776,7 @@
         <v>45352.0</v>
       </c>
       <c r="B89" t="n">
-        <v>591.5051806945158</v>
+        <v>577.2508076777351</v>
       </c>
     </row>
     <row r="90">
@@ -784,7 +784,7 @@
         <v>45383.0</v>
       </c>
       <c r="B90" t="n">
-        <v>604.400166504453</v>
+        <v>590.5780982127154</v>
       </c>
     </row>
     <row r="91">
@@ -792,7 +792,7 @@
         <v>45413.0</v>
       </c>
       <c r="B91" t="n">
-        <v>617.6332145978811</v>
+        <v>605.3085591521942</v>
       </c>
     </row>
     <row r="92">
@@ -800,7 +800,7 @@
         <v>45444.0</v>
       </c>
       <c r="B92" t="n">
-        <v>625.371557319734</v>
+        <v>618.2297673116163</v>
       </c>
     </row>
     <row r="93">
@@ -808,7 +808,7 @@
         <v>45474.0</v>
       </c>
       <c r="B93" t="n">
-        <v>625.7124970094923</v>
+        <v>626.6185485503387</v>
       </c>
     </row>
     <row r="94">
@@ -816,7 +816,7 @@
         <v>45505.0</v>
       </c>
       <c r="B94" t="n">
-        <v>634.2343012989857</v>
+        <v>641.1305484433833</v>
       </c>
     </row>
     <row r="95">
@@ -824,7 +824,7 @@
         <v>45536.0</v>
       </c>
       <c r="B95" t="n">
-        <v>647.3641271872018</v>
+        <v>658.5926873053221</v>
       </c>
     </row>
     <row r="96">
@@ -832,7 +832,7 @@
         <v>45566.0</v>
       </c>
       <c r="B96" t="n">
-        <v>661.8709932169655</v>
+        <v>677.0988580675455</v>
       </c>
     </row>
     <row r="97">
@@ -840,7 +840,7 @@
         <v>45597.0</v>
       </c>
       <c r="B97" t="n">
-        <v>671.9931463792478</v>
+        <v>694.2909878178353</v>
       </c>
     </row>
     <row r="98">
@@ -848,7 +848,7 @@
         <v>45627.0</v>
       </c>
       <c r="B98" t="n">
-        <v>683.8910655341168</v>
+        <v>714.91738415551</v>
       </c>
     </row>
     <row r="99">
@@ -856,7 +856,7 @@
         <v>45658.0</v>
       </c>
       <c r="B99" t="n">
-        <v>685.2718597044297</v>
+        <v>727.5529935960401</v>
       </c>
     </row>
     <row r="100">
@@ -864,7 +864,7 @@
         <v>45689.0</v>
       </c>
       <c r="B100" t="n">
-        <v>684.1566832931613</v>
+        <v>755.0459084392925</v>
       </c>
     </row>
     <row r="101">
@@ -872,7 +872,7 @@
         <v>45717.0</v>
       </c>
       <c r="B101" t="n">
-        <v>684.399623220066</v>
+        <v>781.593339930868</v>
       </c>
     </row>
   </sheetData>

--- a/giyimma.xlsx
+++ b/giyimma.xlsx
@@ -80,7 +80,7 @@
         <v>42705.0</v>
       </c>
       <c r="B2" t="n">
-        <v>188.73168177695516</v>
+        <v>188.77542268425015</v>
       </c>
     </row>
     <row r="3">
@@ -88,7 +88,7 @@
         <v>42736.0</v>
       </c>
       <c r="B3" t="n">
-        <v>190.09980803941238</v>
+        <v>190.16773783594377</v>
       </c>
     </row>
     <row r="4">
@@ -96,7 +96,7 @@
         <v>42767.0</v>
       </c>
       <c r="B4" t="n">
-        <v>192.12906553609753</v>
+        <v>192.11111160992564</v>
       </c>
     </row>
     <row r="5">
@@ -104,7 +104,7 @@
         <v>42795.0</v>
       </c>
       <c r="B5" t="n">
-        <v>194.27448958142202</v>
+        <v>194.1851251186704</v>
       </c>
     </row>
     <row r="6">
@@ -112,7 +112,7 @@
         <v>42826.0</v>
       </c>
       <c r="B6" t="n">
-        <v>195.67519494381744</v>
+        <v>195.55223890662572</v>
       </c>
     </row>
     <row r="7">
@@ -120,7 +120,7 @@
         <v>42856.0</v>
       </c>
       <c r="B7" t="n">
-        <v>197.84459465784278</v>
+        <v>197.66383935721163</v>
       </c>
     </row>
     <row r="8">
@@ -128,7 +128,7 @@
         <v>42887.0</v>
       </c>
       <c r="B8" t="n">
-        <v>199.5376391358184</v>
+        <v>199.3489369766299</v>
       </c>
     </row>
     <row r="9">
@@ -136,7 +136,7 @@
         <v>42917.0</v>
       </c>
       <c r="B9" t="n">
-        <v>201.21050342295223</v>
+        <v>201.052844517441</v>
       </c>
     </row>
     <row r="10">
@@ -144,7 +144,7 @@
         <v>42948.0</v>
       </c>
       <c r="B10" t="n">
-        <v>202.48509978442266</v>
+        <v>202.4470832062006</v>
       </c>
     </row>
     <row r="11">
@@ -152,7 +152,7 @@
         <v>42979.0</v>
       </c>
       <c r="B11" t="n">
-        <v>203.2409943978926</v>
+        <v>203.39443633870096</v>
       </c>
     </row>
     <row r="12">
@@ -160,7 +160,7 @@
         <v>43009.0</v>
       </c>
       <c r="B12" t="n">
-        <v>204.79261201933917</v>
+        <v>205.02016553333144</v>
       </c>
     </row>
     <row r="13">
@@ -168,7 +168,7 @@
         <v>43040.0</v>
       </c>
       <c r="B13" t="n">
-        <v>207.28576909200763</v>
+        <v>207.45094535009116</v>
       </c>
     </row>
     <row r="14">
@@ -176,7 +176,7 @@
         <v>43070.0</v>
       </c>
       <c r="B14" t="n">
-        <v>209.93982211181222</v>
+        <v>210.06273834698766</v>
       </c>
     </row>
     <row r="15">
@@ -184,7 +184,7 @@
         <v>43101.0</v>
       </c>
       <c r="B15" t="n">
-        <v>213.06577359454155</v>
+        <v>213.0903357635177</v>
       </c>
     </row>
     <row r="16">
@@ -192,7 +192,7 @@
         <v>43132.0</v>
       </c>
       <c r="B16" t="n">
-        <v>215.1758487034008</v>
+        <v>215.28628195384425</v>
       </c>
     </row>
     <row r="17">
@@ -200,7 +200,7 @@
         <v>43160.0</v>
       </c>
       <c r="B17" t="n">
-        <v>216.84563877972604</v>
+        <v>217.01816577310754</v>
       </c>
     </row>
     <row r="18">
@@ -208,7 +208,7 @@
         <v>43191.0</v>
       </c>
       <c r="B18" t="n">
-        <v>221.48055732589594</v>
+        <v>221.38323702143077</v>
       </c>
     </row>
     <row r="19">
@@ -216,7 +216,7 @@
         <v>43221.0</v>
       </c>
       <c r="B19" t="n">
-        <v>223.24822618023165</v>
+        <v>223.2049974080204</v>
       </c>
     </row>
     <row r="20">
@@ -224,7 +224,7 @@
         <v>43252.0</v>
       </c>
       <c r="B20" t="n">
-        <v>225.4924252883869</v>
+        <v>225.53456315490266</v>
       </c>
     </row>
     <row r="21">
@@ -232,7 +232,7 @@
         <v>43282.0</v>
       </c>
       <c r="B21" t="n">
-        <v>227.68318359054797</v>
+        <v>227.72240797113642</v>
       </c>
     </row>
     <row r="22">
@@ -240,7 +240,7 @@
         <v>43313.0</v>
       </c>
       <c r="B22" t="n">
-        <v>229.84843258424706</v>
+        <v>229.83707876486633</v>
       </c>
     </row>
     <row r="23">
@@ -248,7 +248,7 @@
         <v>43344.0</v>
       </c>
       <c r="B23" t="n">
-        <v>233.7003441305649</v>
+        <v>233.38296892205327</v>
       </c>
     </row>
     <row r="24">
@@ -256,7 +256,7 @@
         <v>43374.0</v>
       </c>
       <c r="B24" t="n">
-        <v>236.23926022349605</v>
+        <v>235.6933537172529</v>
       </c>
     </row>
     <row r="25">
@@ -264,7 +264,7 @@
         <v>43405.0</v>
       </c>
       <c r="B25" t="n">
-        <v>237.17700527764333</v>
+        <v>236.70262549982908</v>
       </c>
     </row>
     <row r="26">
@@ -272,7 +272,7 @@
         <v>43435.0</v>
       </c>
       <c r="B26" t="n">
-        <v>237.07799969363367</v>
+        <v>236.7793783623107</v>
       </c>
     </row>
     <row r="27">
@@ -280,7 +280,7 @@
         <v>43466.0</v>
       </c>
       <c r="B27" t="n">
-        <v>236.888440797115</v>
+        <v>236.80092017882475</v>
       </c>
     </row>
     <row r="28">
@@ -288,7 +288,7 @@
         <v>43497.0</v>
       </c>
       <c r="B28" t="n">
-        <v>237.58914716501087</v>
+        <v>237.58557052649465</v>
       </c>
     </row>
     <row r="29">
@@ -296,7 +296,7 @@
         <v>43525.0</v>
       </c>
       <c r="B29" t="n">
-        <v>238.38560070949936</v>
+        <v>238.39867733559257</v>
       </c>
     </row>
     <row r="30">
@@ -304,7 +304,7 @@
         <v>43556.0</v>
       </c>
       <c r="B30" t="n">
-        <v>237.91653777563252</v>
+        <v>238.11833633098212</v>
       </c>
     </row>
     <row r="31">
@@ -312,7 +312,7 @@
         <v>43586.0</v>
       </c>
       <c r="B31" t="n">
-        <v>237.6306446075104</v>
+        <v>237.98362664479603</v>
       </c>
     </row>
     <row r="32">
@@ -320,7 +320,7 @@
         <v>43617.0</v>
       </c>
       <c r="B32" t="n">
-        <v>237.50613149896327</v>
+        <v>237.94861729416147</v>
       </c>
     </row>
     <row r="33">
@@ -328,7 +328,7 @@
         <v>43647.0</v>
       </c>
       <c r="B33" t="n">
-        <v>238.59482433233103</v>
+        <v>239.00192501252846</v>
       </c>
     </row>
     <row r="34">
@@ -336,7 +336,7 @@
         <v>43678.0</v>
       </c>
       <c r="B34" t="n">
-        <v>240.57246323876257</v>
+        <v>240.81616762876843</v>
       </c>
     </row>
     <row r="35">
@@ -344,7 +344,7 @@
         <v>43709.0</v>
       </c>
       <c r="B35" t="n">
-        <v>241.78769724827688</v>
+        <v>241.88692685609152</v>
       </c>
     </row>
     <row r="36">
@@ -352,7 +352,7 @@
         <v>43739.0</v>
       </c>
       <c r="B36" t="n">
-        <v>244.76222528787952</v>
+        <v>244.62502108570274</v>
       </c>
     </row>
     <row r="37">
@@ -360,7 +360,7 @@
         <v>43770.0</v>
       </c>
       <c r="B37" t="n">
-        <v>246.28193816117707</v>
+        <v>246.00990340652515</v>
       </c>
     </row>
     <row r="38">
@@ -368,7 +368,7 @@
         <v>43800.0</v>
       </c>
       <c r="B38" t="n">
-        <v>249.022057705013</v>
+        <v>248.5743732019114</v>
       </c>
     </row>
     <row r="39">
@@ -376,7 +376,7 @@
         <v>43831.0</v>
       </c>
       <c r="B39" t="n">
-        <v>249.57655133178116</v>
+        <v>249.28855538333235</v>
       </c>
     </row>
     <row r="40">
@@ -384,7 +384,7 @@
         <v>43862.0</v>
       </c>
       <c r="B40" t="n">
-        <v>248.8036954245694</v>
+        <v>248.75353355116562</v>
       </c>
     </row>
     <row r="41">
@@ -392,7 +392,7 @@
         <v>43891.0</v>
       </c>
       <c r="B41" t="n">
-        <v>250.14968601100222</v>
+        <v>250.14329607356964</v>
       </c>
     </row>
     <row r="42">
@@ -400,7 +400,7 @@
         <v>43922.0</v>
       </c>
       <c r="B42" t="n">
-        <v>248.87155782241723</v>
+        <v>249.1628834398994</v>
       </c>
     </row>
     <row r="43">
@@ -408,7 +408,7 @@
         <v>43952.0</v>
       </c>
       <c r="B43" t="n">
-        <v>252.13399116919527</v>
+        <v>252.15382110471987</v>
       </c>
     </row>
     <row r="44">
@@ -416,7 +416,7 @@
         <v>43983.0</v>
       </c>
       <c r="B44" t="n">
-        <v>255.50193958681123</v>
+        <v>255.1482595141083</v>
       </c>
     </row>
     <row r="45">
@@ -424,7 +424,7 @@
         <v>44013.0</v>
       </c>
       <c r="B45" t="n">
-        <v>255.71012595116662</v>
+        <v>255.51131993996606</v>
       </c>
     </row>
     <row r="46">
@@ -432,7 +432,7 @@
         <v>44044.0</v>
       </c>
       <c r="B46" t="n">
-        <v>257.04603701809566</v>
+        <v>256.84804873282144</v>
       </c>
     </row>
     <row r="47">
@@ -440,7 +440,7 @@
         <v>44075.0</v>
       </c>
       <c r="B47" t="n">
-        <v>257.58188054852485</v>
+        <v>257.5113252825987</v>
       </c>
     </row>
     <row r="48">
@@ -448,7 +448,7 @@
         <v>44105.0</v>
       </c>
       <c r="B48" t="n">
-        <v>256.47648338252554</v>
+        <v>256.70898263534207</v>
       </c>
     </row>
     <row r="49">
@@ -456,7 +456,7 @@
         <v>44136.0</v>
       </c>
       <c r="B49" t="n">
-        <v>257.91303349786114</v>
+        <v>258.09955860534717</v>
       </c>
     </row>
     <row r="50">
@@ -464,7 +464,7 @@
         <v>44166.0</v>
       </c>
       <c r="B50" t="n">
-        <v>257.8224558752299</v>
+        <v>258.0985307555905</v>
       </c>
     </row>
     <row r="51">
@@ -472,7 +472,7 @@
         <v>44197.0</v>
       </c>
       <c r="B51" t="n">
-        <v>258.96566669170664</v>
+        <v>259.2299081201238</v>
       </c>
     </row>
     <row r="52">
@@ -480,7 +480,7 @@
         <v>44228.0</v>
       </c>
       <c r="B52" t="n">
-        <v>262.5075302614843</v>
+        <v>262.498131057674</v>
       </c>
     </row>
     <row r="53">
@@ -488,7 +488,7 @@
         <v>44256.0</v>
       </c>
       <c r="B53" t="n">
-        <v>264.9034769127865</v>
+        <v>264.67601971669166</v>
       </c>
     </row>
     <row r="54">
@@ -496,7 +496,7 @@
         <v>44287.0</v>
       </c>
       <c r="B54" t="n">
-        <v>269.3147388375008</v>
+        <v>268.7598546325981</v>
       </c>
     </row>
     <row r="55">
@@ -504,7 +504,7 @@
         <v>44317.0</v>
       </c>
       <c r="B55" t="n">
-        <v>262.010974197032</v>
+        <v>261.57730034366125</v>
       </c>
     </row>
     <row r="56">
@@ -512,7 +512,7 @@
         <v>44348.0</v>
       </c>
       <c r="B56" t="n">
-        <v>272.26824054461355</v>
+        <v>271.9473324742851</v>
       </c>
     </row>
     <row r="57">
@@ -520,7 +520,7 @@
         <v>44378.0</v>
       </c>
       <c r="B57" t="n">
-        <v>274.1181390111354</v>
+        <v>273.9948037087907</v>
       </c>
     </row>
     <row r="58">
@@ -528,7 +528,7 @@
         <v>44409.0</v>
       </c>
       <c r="B58" t="n">
-        <v>274.35186243822807</v>
+        <v>274.61706524181966</v>
       </c>
     </row>
     <row r="59">
@@ -536,7 +536,7 @@
         <v>44440.0</v>
       </c>
       <c r="B59" t="n">
-        <v>276.9206841614065</v>
+        <v>277.43938645082295</v>
       </c>
     </row>
     <row r="60">
@@ -544,7 +544,7 @@
         <v>44470.0</v>
       </c>
       <c r="B60" t="n">
-        <v>279.7008317984463</v>
+        <v>280.4899602614579</v>
       </c>
     </row>
     <row r="61">
@@ -552,7 +552,7 @@
         <v>44501.0</v>
       </c>
       <c r="B61" t="n">
-        <v>285.21455911567926</v>
+        <v>285.89300624811557</v>
       </c>
     </row>
     <row r="62">
@@ -560,7 +560,7 @@
         <v>44531.0</v>
       </c>
       <c r="B62" t="n">
-        <v>313.95687611529155</v>
+        <v>314.31041412896496</v>
       </c>
     </row>
     <row r="63">
@@ -568,7 +568,7 @@
         <v>44562.0</v>
       </c>
       <c r="B63" t="n">
-        <v>321.9752071472749</v>
+        <v>321.8881499762555</v>
       </c>
     </row>
     <row r="64">
@@ -576,7 +576,7 @@
         <v>44593.0</v>
       </c>
       <c r="B64" t="n">
-        <v>328.7625148481505</v>
+        <v>328.4646964746404</v>
       </c>
     </row>
     <row r="65">
@@ -584,7 +584,7 @@
         <v>44621.0</v>
       </c>
       <c r="B65" t="n">
-        <v>335.6811839348222</v>
+        <v>335.25599305180896</v>
       </c>
     </row>
     <row r="66">
@@ -592,7 +592,7 @@
         <v>44652.0</v>
       </c>
       <c r="B66" t="n">
-        <v>343.1496386942744</v>
+        <v>342.542027665268</v>
       </c>
     </row>
     <row r="67">
@@ -600,7 +600,7 @@
         <v>44682.0</v>
       </c>
       <c r="B67" t="n">
-        <v>344.93339702245754</v>
+        <v>344.9027847080699</v>
       </c>
     </row>
     <row r="68">
@@ -608,7 +608,7 @@
         <v>44713.0</v>
       </c>
       <c r="B68" t="n">
-        <v>350.98762704804653</v>
+        <v>351.0597552150757</v>
       </c>
     </row>
     <row r="69">
@@ -616,7 +616,7 @@
         <v>44743.0</v>
       </c>
       <c r="B69" t="n">
-        <v>358.71344459281494</v>
+        <v>358.31118671438634</v>
       </c>
     </row>
     <row r="70">
@@ -624,7 +624,7 @@
         <v>44774.0</v>
       </c>
       <c r="B70" t="n">
-        <v>367.1819945181043</v>
+        <v>366.3543264593553</v>
       </c>
     </row>
     <row r="71">
@@ -632,7 +632,7 @@
         <v>44805.0</v>
       </c>
       <c r="B71" t="n">
-        <v>373.64065434753627</v>
+        <v>372.7784062629569</v>
       </c>
     </row>
     <row r="72">
@@ -640,7 +640,7 @@
         <v>44835.0</v>
       </c>
       <c r="B72" t="n">
-        <v>377.29871575898966</v>
+        <v>376.8440041770398</v>
       </c>
     </row>
     <row r="73">
@@ -648,7 +648,7 @@
         <v>44866.0</v>
       </c>
       <c r="B73" t="n">
-        <v>380.99281184596737</v>
+        <v>380.92100499368473</v>
       </c>
     </row>
     <row r="74">
@@ -656,7 +656,7 @@
         <v>44896.0</v>
       </c>
       <c r="B74" t="n">
-        <v>387.2651832977544</v>
+        <v>387.1425355879488</v>
       </c>
     </row>
     <row r="75">
@@ -664,7 +664,7 @@
         <v>44927.0</v>
       </c>
       <c r="B75" t="n">
-        <v>393.9019532950752</v>
+        <v>393.5499414127147</v>
       </c>
     </row>
     <row r="76">
@@ -672,7 +672,7 @@
         <v>44958.0</v>
       </c>
       <c r="B76" t="n">
-        <v>398.3439174330474</v>
+        <v>398.4867067926831</v>
       </c>
     </row>
     <row r="77">
@@ -680,7 +680,7 @@
         <v>44986.0</v>
       </c>
       <c r="B77" t="n">
-        <v>400.11930855301836</v>
+        <v>401.2439894505237</v>
       </c>
     </row>
     <row r="78">
@@ -688,7 +688,7 @@
         <v>45017.0</v>
       </c>
       <c r="B78" t="n">
-        <v>405.1903309896111</v>
+        <v>406.8846307381209</v>
       </c>
     </row>
     <row r="79">
@@ -696,7 +696,7 @@
         <v>45047.0</v>
       </c>
       <c r="B79" t="n">
-        <v>417.7618374577175</v>
+        <v>419.1121445328419</v>
       </c>
     </row>
     <row r="80">
@@ -704,7 +704,7 @@
         <v>45078.0</v>
       </c>
       <c r="B80" t="n">
-        <v>428.36984633480637</v>
+        <v>429.3976100527959</v>
       </c>
     </row>
     <row r="81">
@@ -712,7 +712,7 @@
         <v>45108.0</v>
       </c>
       <c r="B81" t="n">
-        <v>443.7871818914236</v>
+        <v>444.0449551098535</v>
       </c>
     </row>
     <row r="82">
@@ -720,7 +720,7 @@
         <v>45139.0</v>
       </c>
       <c r="B82" t="n">
-        <v>484.66010405690463</v>
+        <v>484.096981490865</v>
       </c>
     </row>
     <row r="83">
@@ -728,7 +728,7 @@
         <v>45170.0</v>
       </c>
       <c r="B83" t="n">
-        <v>495.82432845801924</v>
+        <v>495.29425009577926</v>
       </c>
     </row>
     <row r="84">
@@ -736,7 +736,7 @@
         <v>45200.0</v>
       </c>
       <c r="B84" t="n">
-        <v>511.75795846040825</v>
+        <v>510.6505067446854</v>
       </c>
     </row>
     <row r="85">
@@ -744,7 +744,7 @@
         <v>45231.0</v>
       </c>
       <c r="B85" t="n">
-        <v>524.5966242498458</v>
+        <v>523.5592575907754</v>
       </c>
     </row>
     <row r="86">
@@ -752,7 +752,7 @@
         <v>45261.0</v>
       </c>
       <c r="B86" t="n">
-        <v>535.8806202409212</v>
+        <v>534.9523914444574</v>
       </c>
     </row>
     <row r="87">
@@ -760,7 +760,7 @@
         <v>45292.0</v>
       </c>
       <c r="B87" t="n">
-        <v>552.9634752514638</v>
+        <v>551.5293889921159</v>
       </c>
     </row>
     <row r="88">
@@ -768,7 +768,7 @@
         <v>45323.0</v>
       </c>
       <c r="B88" t="n">
-        <v>562.6858036744894</v>
+        <v>561.7816222557966</v>
       </c>
     </row>
     <row r="89">
@@ -776,7 +776,7 @@
         <v>45352.0</v>
       </c>
       <c r="B89" t="n">
-        <v>577.2508076777351</v>
+        <v>575.8459182536109</v>
       </c>
     </row>
     <row r="90">
@@ -784,7 +784,7 @@
         <v>45383.0</v>
       </c>
       <c r="B90" t="n">
-        <v>590.5780982127154</v>
+        <v>592.7515315870162</v>
       </c>
     </row>
     <row r="91">
@@ -792,7 +792,7 @@
         <v>45413.0</v>
       </c>
       <c r="B91" t="n">
-        <v>605.3085591521942</v>
+        <v>608.1315360368156</v>
       </c>
     </row>
     <row r="92">
@@ -800,7 +800,7 @@
         <v>45444.0</v>
       </c>
       <c r="B92" t="n">
-        <v>618.2297673116163</v>
+        <v>620.9292365123348</v>
       </c>
     </row>
     <row r="93">
@@ -808,7 +808,7 @@
         <v>45474.0</v>
       </c>
       <c r="B93" t="n">
-        <v>626.6185485503387</v>
+        <v>629.6717585614358</v>
       </c>
     </row>
     <row r="94">
@@ -816,7 +816,7 @@
         <v>45505.0</v>
       </c>
       <c r="B94" t="n">
-        <v>641.1305484433833</v>
+        <v>643.291430113049</v>
       </c>
     </row>
     <row r="95">
@@ -824,7 +824,7 @@
         <v>45536.0</v>
       </c>
       <c r="B95" t="n">
-        <v>658.5926873053221</v>
+        <v>659.1495166199663</v>
       </c>
     </row>
     <row r="96">
@@ -832,7 +832,7 @@
         <v>45566.0</v>
       </c>
       <c r="B96" t="n">
-        <v>677.0988580675455</v>
+        <v>675.6546984998843</v>
       </c>
     </row>
     <row r="97">
@@ -840,7 +840,7 @@
         <v>45597.0</v>
       </c>
       <c r="B97" t="n">
-        <v>694.2909878178353</v>
+        <v>690.8611999547788</v>
       </c>
     </row>
     <row r="98">
@@ -848,7 +848,7 @@
         <v>45627.0</v>
       </c>
       <c r="B98" t="n">
-        <v>714.91738415551</v>
+        <v>709.0576618314606</v>
       </c>
     </row>
     <row r="99">
@@ -856,7 +856,7 @@
         <v>45658.0</v>
       </c>
       <c r="B99" t="n">
-        <v>727.5529935960401</v>
+        <v>720.2079161754699</v>
       </c>
     </row>
     <row r="100">
@@ -864,7 +864,7 @@
         <v>45689.0</v>
       </c>
       <c r="B100" t="n">
-        <v>755.0459084392925</v>
+        <v>743.1121927916123</v>
       </c>
     </row>
     <row r="101">
@@ -872,7 +872,15 @@
         <v>45717.0</v>
       </c>
       <c r="B101" t="n">
-        <v>781.593339930868</v>
+        <v>765.4448114349256</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>45748.0</v>
+      </c>
+      <c r="B102" t="n">
+        <v>778.8328130891314</v>
       </c>
     </row>
   </sheetData>

--- a/giyimma.xlsx
+++ b/giyimma.xlsx
@@ -80,7 +80,7 @@
         <v>42705.0</v>
       </c>
       <c r="B2" t="n">
-        <v>188.77542268425015</v>
+        <v>188.7762702857414</v>
       </c>
     </row>
     <row r="3">
@@ -88,7 +88,7 @@
         <v>42736.0</v>
       </c>
       <c r="B3" t="n">
-        <v>190.16773783594377</v>
+        <v>190.16920948285366</v>
       </c>
     </row>
     <row r="4">
@@ -96,7 +96,7 @@
         <v>42767.0</v>
       </c>
       <c r="B4" t="n">
-        <v>192.11111160992564</v>
+        <v>192.11064065563048</v>
       </c>
     </row>
     <row r="5">
@@ -104,7 +104,7 @@
         <v>42795.0</v>
       </c>
       <c r="B5" t="n">
-        <v>194.1851251186704</v>
+        <v>194.18307694359245</v>
       </c>
     </row>
     <row r="6">
@@ -112,7 +112,7 @@
         <v>42826.0</v>
       </c>
       <c r="B6" t="n">
-        <v>195.55223890662572</v>
+        <v>195.54980211613574</v>
       </c>
     </row>
     <row r="7">
@@ -120,7 +120,7 @@
         <v>42856.0</v>
       </c>
       <c r="B7" t="n">
-        <v>197.66383935721163</v>
+        <v>197.66008457756817</v>
       </c>
     </row>
     <row r="8">
@@ -128,7 +128,7 @@
         <v>42887.0</v>
       </c>
       <c r="B8" t="n">
-        <v>199.3489369766299</v>
+        <v>199.34495319371072</v>
       </c>
     </row>
     <row r="9">
@@ -136,7 +136,7 @@
         <v>42917.0</v>
       </c>
       <c r="B9" t="n">
-        <v>201.052844517441</v>
+        <v>201.0495136271826</v>
       </c>
     </row>
     <row r="10">
@@ -144,7 +144,7 @@
         <v>42948.0</v>
       </c>
       <c r="B10" t="n">
-        <v>202.4470832062006</v>
+        <v>202.4461982143019</v>
       </c>
     </row>
     <row r="11">
@@ -152,7 +152,7 @@
         <v>42979.0</v>
       </c>
       <c r="B11" t="n">
-        <v>203.39443633870096</v>
+        <v>203.39785131588664</v>
       </c>
     </row>
     <row r="12">
@@ -160,7 +160,7 @@
         <v>43009.0</v>
       </c>
       <c r="B12" t="n">
-        <v>205.02016553333144</v>
+        <v>205.02532588272575</v>
       </c>
     </row>
     <row r="13">
@@ -168,7 +168,7 @@
         <v>43040.0</v>
       </c>
       <c r="B13" t="n">
-        <v>207.45094535009116</v>
+        <v>207.4547317406946</v>
       </c>
     </row>
     <row r="14">
@@ -176,7 +176,7 @@
         <v>43070.0</v>
       </c>
       <c r="B14" t="n">
-        <v>210.06273834698766</v>
+        <v>210.0656459021423</v>
       </c>
     </row>
     <row r="15">
@@ -184,7 +184,7 @@
         <v>43101.0</v>
       </c>
       <c r="B15" t="n">
-        <v>213.0903357635177</v>
+        <v>213.09071894221685</v>
       </c>
     </row>
     <row r="16">
@@ -192,7 +192,7 @@
         <v>43132.0</v>
       </c>
       <c r="B16" t="n">
-        <v>215.28628195384425</v>
+        <v>215.28866025796998</v>
       </c>
     </row>
     <row r="17">
@@ -200,7 +200,7 @@
         <v>43160.0</v>
       </c>
       <c r="B17" t="n">
-        <v>217.01816577310754</v>
+        <v>217.02210077023247</v>
       </c>
     </row>
     <row r="18">
@@ -208,7 +208,7 @@
         <v>43191.0</v>
       </c>
       <c r="B18" t="n">
-        <v>221.38323702143077</v>
+        <v>221.38091934127056</v>
       </c>
     </row>
     <row r="19">
@@ -216,7 +216,7 @@
         <v>43221.0</v>
       </c>
       <c r="B19" t="n">
-        <v>223.2049974080204</v>
+        <v>223.20397854834792</v>
       </c>
     </row>
     <row r="20">
@@ -224,7 +224,7 @@
         <v>43252.0</v>
       </c>
       <c r="B20" t="n">
-        <v>225.53456315490266</v>
+        <v>225.53534082888802</v>
       </c>
     </row>
     <row r="21">
@@ -232,7 +232,7 @@
         <v>43282.0</v>
       </c>
       <c r="B21" t="n">
-        <v>227.72240797113642</v>
+        <v>227.72301007572432</v>
       </c>
     </row>
     <row r="22">
@@ -240,7 +240,7 @@
         <v>43313.0</v>
       </c>
       <c r="B22" t="n">
-        <v>229.83707876486633</v>
+        <v>229.83683476448357</v>
       </c>
     </row>
     <row r="23">
@@ -248,7 +248,7 @@
         <v>43344.0</v>
       </c>
       <c r="B23" t="n">
-        <v>233.38296892205327</v>
+        <v>233.37587323496456</v>
       </c>
     </row>
     <row r="24">
@@ -256,7 +256,7 @@
         <v>43374.0</v>
       </c>
       <c r="B24" t="n">
-        <v>235.6933537172529</v>
+        <v>235.68151481699024</v>
       </c>
     </row>
     <row r="25">
@@ -264,7 +264,7 @@
         <v>43405.0</v>
       </c>
       <c r="B25" t="n">
-        <v>236.70262549982908</v>
+        <v>236.6925548925005</v>
       </c>
     </row>
     <row r="26">
@@ -272,7 +272,7 @@
         <v>43435.0</v>
       </c>
       <c r="B26" t="n">
-        <v>236.7793783623107</v>
+        <v>236.77323389890208</v>
       </c>
     </row>
     <row r="27">
@@ -280,7 +280,7 @@
         <v>43466.0</v>
       </c>
       <c r="B27" t="n">
-        <v>236.80092017882475</v>
+        <v>236.79933973097232</v>
       </c>
     </row>
     <row r="28">
@@ -288,7 +288,7 @@
         <v>43497.0</v>
       </c>
       <c r="B28" t="n">
-        <v>237.58557052649465</v>
+        <v>237.58541664791397</v>
       </c>
     </row>
     <row r="29">
@@ -296,7 +296,7 @@
         <v>43525.0</v>
       </c>
       <c r="B29" t="n">
-        <v>238.39867733559257</v>
+        <v>238.39871819856194</v>
       </c>
     </row>
     <row r="30">
@@ -304,7 +304,7 @@
         <v>43556.0</v>
       </c>
       <c r="B30" t="n">
-        <v>238.11833633098212</v>
+        <v>238.12253426556566</v>
       </c>
     </row>
     <row r="31">
@@ -312,7 +312,7 @@
         <v>43586.0</v>
       </c>
       <c r="B31" t="n">
-        <v>237.98362664479603</v>
+        <v>237.99115994027315</v>
       </c>
     </row>
     <row r="32">
@@ -320,7 +320,7 @@
         <v>43617.0</v>
       </c>
       <c r="B32" t="n">
-        <v>237.94861729416147</v>
+        <v>237.95842187300266</v>
       </c>
     </row>
     <row r="33">
@@ -328,7 +328,7 @@
         <v>43647.0</v>
       </c>
       <c r="B33" t="n">
-        <v>239.00192501252846</v>
+        <v>239.01072848024248</v>
       </c>
     </row>
     <row r="34">
@@ -336,7 +336,7 @@
         <v>43678.0</v>
       </c>
       <c r="B34" t="n">
-        <v>240.81616762876843</v>
+        <v>240.82147712376545</v>
       </c>
     </row>
     <row r="35">
@@ -344,7 +344,7 @@
         <v>43709.0</v>
       </c>
       <c r="B35" t="n">
-        <v>241.88692685609152</v>
+        <v>241.88944151703845</v>
       </c>
     </row>
     <row r="36">
@@ -352,7 +352,7 @@
         <v>43739.0</v>
       </c>
       <c r="B36" t="n">
-        <v>244.62502108570274</v>
+        <v>244.62224468737642</v>
       </c>
     </row>
     <row r="37">
@@ -360,7 +360,7 @@
         <v>43770.0</v>
       </c>
       <c r="B37" t="n">
-        <v>246.00990340652515</v>
+        <v>246.0044667195036</v>
       </c>
     </row>
     <row r="38">
@@ -368,7 +368,7 @@
         <v>43800.0</v>
       </c>
       <c r="B38" t="n">
-        <v>248.5743732019114</v>
+        <v>248.56467788860124</v>
       </c>
     </row>
     <row r="39">
@@ -376,7 +376,7 @@
         <v>43831.0</v>
       </c>
       <c r="B39" t="n">
-        <v>249.28855538333235</v>
+        <v>249.28220572575873</v>
       </c>
     </row>
     <row r="40">
@@ -384,7 +384,7 @@
         <v>43862.0</v>
       </c>
       <c r="B40" t="n">
-        <v>248.75353355116562</v>
+        <v>248.7526134995086</v>
       </c>
     </row>
     <row r="41">
@@ -392,7 +392,7 @@
         <v>43891.0</v>
       </c>
       <c r="B41" t="n">
-        <v>250.14329607356964</v>
+        <v>250.14310260029674</v>
       </c>
     </row>
     <row r="42">
@@ -400,7 +400,7 @@
         <v>43922.0</v>
       </c>
       <c r="B42" t="n">
-        <v>249.1628834398994</v>
+        <v>249.16966531708644</v>
       </c>
     </row>
     <row r="43">
@@ -408,7 +408,7 @@
         <v>43952.0</v>
       </c>
       <c r="B43" t="n">
-        <v>252.15382110471987</v>
+        <v>252.1542891580296</v>
       </c>
     </row>
     <row r="44">
@@ -416,7 +416,7 @@
         <v>43983.0</v>
       </c>
       <c r="B44" t="n">
-        <v>255.1482595141083</v>
+        <v>255.1402578844736</v>
       </c>
     </row>
     <row r="45">
@@ -424,7 +424,7 @@
         <v>44013.0</v>
       </c>
       <c r="B45" t="n">
-        <v>255.51131993996606</v>
+        <v>255.50705538209942</v>
       </c>
     </row>
     <row r="46">
@@ -432,7 +432,7 @@
         <v>44044.0</v>
       </c>
       <c r="B46" t="n">
-        <v>256.84804873282144</v>
+        <v>256.84333834167023</v>
       </c>
     </row>
     <row r="47">
@@ -440,7 +440,7 @@
         <v>44075.0</v>
       </c>
       <c r="B47" t="n">
-        <v>257.5113252825987</v>
+        <v>257.5093081656721</v>
       </c>
     </row>
     <row r="48">
@@ -448,7 +448,7 @@
         <v>44105.0</v>
       </c>
       <c r="B48" t="n">
-        <v>256.70898263534207</v>
+        <v>256.71370507791147</v>
       </c>
     </row>
     <row r="49">
@@ -456,7 +456,7 @@
         <v>44136.0</v>
       </c>
       <c r="B49" t="n">
-        <v>258.09955860534717</v>
+        <v>258.1032380574574</v>
       </c>
     </row>
     <row r="50">
@@ -464,7 +464,7 @@
         <v>44166.0</v>
       </c>
       <c r="B50" t="n">
-        <v>258.0985307555905</v>
+        <v>258.10429792996246</v>
       </c>
     </row>
     <row r="51">
@@ -472,7 +472,7 @@
         <v>44197.0</v>
       </c>
       <c r="B51" t="n">
-        <v>259.2299081201238</v>
+        <v>259.2357858486874</v>
       </c>
     </row>
     <row r="52">
@@ -480,7 +480,7 @@
         <v>44228.0</v>
       </c>
       <c r="B52" t="n">
-        <v>262.498131057674</v>
+        <v>262.4978128852151</v>
       </c>
     </row>
     <row r="53">
@@ -488,7 +488,7 @@
         <v>44256.0</v>
       </c>
       <c r="B53" t="n">
-        <v>264.67601971669166</v>
+        <v>264.6714799668643</v>
       </c>
     </row>
     <row r="54">
@@ -496,7 +496,7 @@
         <v>44287.0</v>
       </c>
       <c r="B54" t="n">
-        <v>268.7598546325981</v>
+        <v>268.74785751541447</v>
       </c>
     </row>
     <row r="55">
@@ -504,7 +504,7 @@
         <v>44317.0</v>
       </c>
       <c r="B55" t="n">
-        <v>261.57730034366125</v>
+        <v>261.56781521403883</v>
       </c>
     </row>
     <row r="56">
@@ -512,7 +512,7 @@
         <v>44348.0</v>
       </c>
       <c r="B56" t="n">
-        <v>271.9473324742851</v>
+        <v>271.9409652662664</v>
       </c>
     </row>
     <row r="57">
@@ -520,7 +520,7 @@
         <v>44378.0</v>
       </c>
       <c r="B57" t="n">
-        <v>273.9948037087907</v>
+        <v>273.99285294284476</v>
       </c>
     </row>
     <row r="58">
@@ -528,7 +528,7 @@
         <v>44409.0</v>
       </c>
       <c r="B58" t="n">
-        <v>274.61706524181966</v>
+        <v>274.62407007134993</v>
       </c>
     </row>
     <row r="59">
@@ -536,7 +536,7 @@
         <v>44440.0</v>
       </c>
       <c r="B59" t="n">
-        <v>277.43938645082295</v>
+        <v>277.4518167242626</v>
       </c>
     </row>
     <row r="60">
@@ -544,7 +544,7 @@
         <v>44470.0</v>
       </c>
       <c r="B60" t="n">
-        <v>280.4899602614579</v>
+        <v>280.50800268548346</v>
       </c>
     </row>
     <row r="61">
@@ -552,7 +552,7 @@
         <v>44501.0</v>
       </c>
       <c r="B61" t="n">
-        <v>285.89300624811557</v>
+        <v>285.9085114900613</v>
       </c>
     </row>
     <row r="62">
@@ -560,7 +560,7 @@
         <v>44531.0</v>
       </c>
       <c r="B62" t="n">
-        <v>314.31041412896496</v>
+        <v>314.3166502765583</v>
       </c>
     </row>
     <row r="63">
@@ -568,7 +568,7 @@
         <v>44562.0</v>
       </c>
       <c r="B63" t="n">
-        <v>321.8881499762555</v>
+        <v>321.8849945724787</v>
       </c>
     </row>
     <row r="64">
@@ -576,7 +576,7 @@
         <v>44593.0</v>
       </c>
       <c r="B64" t="n">
-        <v>328.4646964746404</v>
+        <v>328.45755668156573</v>
       </c>
     </row>
     <row r="65">
@@ -584,7 +584,7 @@
         <v>44621.0</v>
       </c>
       <c r="B65" t="n">
-        <v>335.25599305180896</v>
+        <v>335.245803044676</v>
       </c>
     </row>
     <row r="66">
@@ -592,7 +592,7 @@
         <v>44652.0</v>
       </c>
       <c r="B66" t="n">
-        <v>342.542027665268</v>
+        <v>342.5276052006318</v>
       </c>
     </row>
     <row r="67">
@@ -600,7 +600,7 @@
         <v>44682.0</v>
       </c>
       <c r="B67" t="n">
-        <v>344.9027847080699</v>
+        <v>344.90155308576226</v>
       </c>
     </row>
     <row r="68">
@@ -608,7 +608,7 @@
         <v>44713.0</v>
       </c>
       <c r="B68" t="n">
-        <v>351.0597552150757</v>
+        <v>351.0609813097751</v>
       </c>
     </row>
     <row r="69">
@@ -616,7 +616,7 @@
         <v>44743.0</v>
       </c>
       <c r="B69" t="n">
-        <v>358.31118671438634</v>
+        <v>358.3026765148345</v>
       </c>
     </row>
     <row r="70">
@@ -624,7 +624,7 @@
         <v>44774.0</v>
       </c>
       <c r="B70" t="n">
-        <v>366.3543264593553</v>
+        <v>366.3363932339417</v>
       </c>
     </row>
     <row r="71">
@@ -632,7 +632,7 @@
         <v>44805.0</v>
       </c>
       <c r="B71" t="n">
-        <v>372.7784062629569</v>
+        <v>372.75952006545464</v>
       </c>
     </row>
     <row r="72">
@@ -640,7 +640,7 @@
         <v>44835.0</v>
       </c>
       <c r="B72" t="n">
-        <v>376.8440041770398</v>
+        <v>376.83418904816034</v>
       </c>
     </row>
     <row r="73">
@@ -648,7 +648,7 @@
         <v>44866.0</v>
       </c>
       <c r="B73" t="n">
-        <v>380.92100499368473</v>
+        <v>380.9199021362587</v>
       </c>
     </row>
     <row r="74">
@@ -656,7 +656,7 @@
         <v>44896.0</v>
       </c>
       <c r="B74" t="n">
-        <v>387.1425355879488</v>
+        <v>387.1399678606595</v>
       </c>
     </row>
     <row r="75">
@@ -664,7 +664,7 @@
         <v>44927.0</v>
       </c>
       <c r="B75" t="n">
-        <v>393.5499414127147</v>
+        <v>393.54356470628</v>
       </c>
     </row>
     <row r="76">
@@ -672,7 +672,7 @@
         <v>44958.0</v>
       </c>
       <c r="B76" t="n">
-        <v>398.4867067926831</v>
+        <v>398.4908029496275</v>
       </c>
     </row>
     <row r="77">
@@ -680,7 +680,7 @@
         <v>44986.0</v>
       </c>
       <c r="B77" t="n">
-        <v>401.2439894505237</v>
+        <v>401.270472654946</v>
       </c>
     </row>
     <row r="78">
@@ -688,7 +688,7 @@
         <v>45017.0</v>
       </c>
       <c r="B78" t="n">
-        <v>406.8846307381209</v>
+        <v>406.9211120789845</v>
       </c>
     </row>
     <row r="79">
@@ -696,7 +696,7 @@
         <v>45047.0</v>
       </c>
       <c r="B79" t="n">
-        <v>419.1121445328419</v>
+        <v>419.13988247294924</v>
       </c>
     </row>
     <row r="80">
@@ -704,7 +704,7 @@
         <v>45078.0</v>
       </c>
       <c r="B80" t="n">
-        <v>429.3976100527959</v>
+        <v>429.4194974809683</v>
       </c>
     </row>
     <row r="81">
@@ -712,7 +712,7 @@
         <v>45108.0</v>
       </c>
       <c r="B81" t="n">
-        <v>444.0449551098535</v>
+        <v>444.0504021738957</v>
       </c>
     </row>
     <row r="82">
@@ -720,7 +720,7 @@
         <v>45139.0</v>
       </c>
       <c r="B82" t="n">
-        <v>484.096981490865</v>
+        <v>484.0821503246248</v>
       </c>
     </row>
     <row r="83">
@@ -728,7 +728,7 @@
         <v>45170.0</v>
       </c>
       <c r="B83" t="n">
-        <v>495.29425009577926</v>
+        <v>495.2821475600604</v>
       </c>
     </row>
     <row r="84">
@@ -736,7 +736,7 @@
         <v>45200.0</v>
       </c>
       <c r="B84" t="n">
-        <v>510.6505067446854</v>
+        <v>510.62658362942767</v>
       </c>
     </row>
     <row r="85">
@@ -744,7 +744,7 @@
         <v>45231.0</v>
       </c>
       <c r="B85" t="n">
-        <v>523.5592575907754</v>
+        <v>523.5382530936981</v>
       </c>
     </row>
     <row r="86">
@@ -752,7 +752,7 @@
         <v>45261.0</v>
       </c>
       <c r="B86" t="n">
-        <v>534.9523914444574</v>
+        <v>534.9362964527354</v>
       </c>
     </row>
     <row r="87">
@@ -760,7 +760,7 @@
         <v>45292.0</v>
       </c>
       <c r="B87" t="n">
-        <v>551.5293889921159</v>
+        <v>551.5028573380405</v>
       </c>
     </row>
     <row r="88">
@@ -768,7 +768,7 @@
         <v>45323.0</v>
       </c>
       <c r="B88" t="n">
-        <v>561.7816222557966</v>
+        <v>561.769939555842</v>
       </c>
     </row>
     <row r="89">
@@ -776,7 +776,7 @@
         <v>45352.0</v>
       </c>
       <c r="B89" t="n">
-        <v>575.8459182536109</v>
+        <v>575.8258241539631</v>
       </c>
     </row>
     <row r="90">
@@ -784,7 +784,7 @@
         <v>45383.0</v>
       </c>
       <c r="B90" t="n">
-        <v>592.7515315870162</v>
+        <v>592.7920664617762</v>
       </c>
     </row>
     <row r="91">
@@ -792,7 +792,7 @@
         <v>45413.0</v>
       </c>
       <c r="B91" t="n">
-        <v>608.1315360368156</v>
+        <v>608.1847566442287</v>
       </c>
     </row>
     <row r="92">
@@ -800,7 +800,7 @@
         <v>45444.0</v>
       </c>
       <c r="B92" t="n">
-        <v>620.9292365123348</v>
+        <v>620.9813744015178</v>
       </c>
     </row>
     <row r="93">
@@ -808,7 +808,7 @@
         <v>45474.0</v>
       </c>
       <c r="B93" t="n">
-        <v>629.6717585614358</v>
+        <v>629.7338703394911</v>
       </c>
     </row>
     <row r="94">
@@ -816,7 +816,7 @@
         <v>45505.0</v>
       </c>
       <c r="B94" t="n">
-        <v>643.291430113049</v>
+        <v>643.3351378579903</v>
       </c>
     </row>
     <row r="95">
@@ -824,7 +824,7 @@
         <v>45536.0</v>
       </c>
       <c r="B95" t="n">
-        <v>659.1495166199663</v>
+        <v>659.1595416693158</v>
       </c>
     </row>
     <row r="96">
@@ -832,7 +832,7 @@
         <v>45566.0</v>
       </c>
       <c r="B96" t="n">
-        <v>675.6546984998843</v>
+        <v>675.6236661568086</v>
       </c>
     </row>
     <row r="97">
@@ -840,7 +840,7 @@
         <v>45597.0</v>
       </c>
       <c r="B97" t="n">
-        <v>690.8611999547788</v>
+        <v>690.7879168665958</v>
       </c>
     </row>
     <row r="98">
@@ -848,7 +848,7 @@
         <v>45627.0</v>
       </c>
       <c r="B98" t="n">
-        <v>709.0576618314606</v>
+        <v>708.9314771759122</v>
       </c>
     </row>
     <row r="99">
@@ -856,7 +856,7 @@
         <v>45658.0</v>
       </c>
       <c r="B99" t="n">
-        <v>720.2079161754699</v>
+        <v>720.0508419436546</v>
       </c>
     </row>
     <row r="100">
@@ -864,7 +864,7 @@
         <v>45689.0</v>
       </c>
       <c r="B100" t="n">
-        <v>743.1121927916123</v>
+        <v>742.8565418373204</v>
       </c>
     </row>
     <row r="101">
@@ -872,7 +872,7 @@
         <v>45717.0</v>
       </c>
       <c r="B101" t="n">
-        <v>765.4448114349256</v>
+        <v>765.0980803253867</v>
       </c>
     </row>
     <row r="102">
@@ -880,7 +880,7 @@
         <v>45748.0</v>
       </c>
       <c r="B102" t="n">
-        <v>778.8328130891314</v>
+        <v>778.3243265147481</v>
       </c>
     </row>
   </sheetData>

--- a/giyimma.xlsx
+++ b/giyimma.xlsx
@@ -80,7 +80,7 @@
         <v>42705.0</v>
       </c>
       <c r="B2" t="n">
-        <v>188.7762702857414</v>
+        <v>188.60583969667408</v>
       </c>
     </row>
     <row r="3">
@@ -88,7 +88,7 @@
         <v>42736.0</v>
       </c>
       <c r="B3" t="n">
-        <v>190.16920948285366</v>
+        <v>189.95958241208072</v>
       </c>
     </row>
     <row r="4">
@@ -96,7 +96,7 @@
         <v>42767.0</v>
       </c>
       <c r="B4" t="n">
-        <v>192.11064065563048</v>
+        <v>192.0720431607501</v>
       </c>
     </row>
     <row r="5">
@@ -104,7 +104,7 @@
         <v>42795.0</v>
       </c>
       <c r="B5" t="n">
-        <v>194.18307694359245</v>
+        <v>194.30001785335503</v>
       </c>
     </row>
     <row r="6">
@@ -112,7 +112,7 @@
         <v>42826.0</v>
       </c>
       <c r="B6" t="n">
-        <v>195.54980211613574</v>
+        <v>195.804468727676</v>
       </c>
     </row>
     <row r="7">
@@ -120,7 +120,7 @@
         <v>42856.0</v>
       </c>
       <c r="B7" t="n">
-        <v>197.66008457756817</v>
+        <v>198.0265708025526</v>
       </c>
     </row>
     <row r="8">
@@ -128,7 +128,7 @@
         <v>42887.0</v>
       </c>
       <c r="B8" t="n">
-        <v>199.34495319371072</v>
+        <v>199.71388622626196</v>
       </c>
     </row>
     <row r="9">
@@ -136,7 +136,7 @@
         <v>42917.0</v>
       </c>
       <c r="B9" t="n">
-        <v>201.0495136271826</v>
+        <v>201.33109628772164</v>
       </c>
     </row>
     <row r="10">
@@ -144,7 +144,7 @@
         <v>42948.0</v>
       </c>
       <c r="B10" t="n">
-        <v>202.4461982143019</v>
+        <v>202.40824328684582</v>
       </c>
     </row>
     <row r="11">
@@ -152,7 +152,7 @@
         <v>42979.0</v>
       </c>
       <c r="B11" t="n">
-        <v>203.39785131588664</v>
+        <v>202.939442616915</v>
       </c>
     </row>
     <row r="12">
@@ -160,7 +160,7 @@
         <v>43009.0</v>
       </c>
       <c r="B12" t="n">
-        <v>205.02532588272575</v>
+        <v>204.41089209310155</v>
       </c>
     </row>
     <row r="13">
@@ -168,7 +168,7 @@
         <v>43040.0</v>
       </c>
       <c r="B13" t="n">
-        <v>207.4547317406946</v>
+        <v>206.96973359849443</v>
       </c>
     </row>
     <row r="14">
@@ -176,7 +176,7 @@
         <v>43070.0</v>
       </c>
       <c r="B14" t="n">
-        <v>210.0656459021423</v>
+        <v>209.7279761519911</v>
       </c>
     </row>
     <row r="15">
@@ -184,7 +184,7 @@
         <v>43101.0</v>
       </c>
       <c r="B15" t="n">
-        <v>213.09071894221685</v>
+        <v>212.89012513519748</v>
       </c>
     </row>
     <row r="16">
@@ -192,7 +192,7 @@
         <v>43132.0</v>
       </c>
       <c r="B16" t="n">
-        <v>215.28866025796998</v>
+        <v>214.9233728808052</v>
       </c>
     </row>
     <row r="17">
@@ -200,7 +200,7 @@
         <v>43160.0</v>
       </c>
       <c r="B17" t="n">
-        <v>217.02210077023247</v>
+        <v>216.56040638747345</v>
       </c>
     </row>
     <row r="18">
@@ -208,7 +208,7 @@
         <v>43191.0</v>
       </c>
       <c r="B18" t="n">
-        <v>221.38091934127056</v>
+        <v>221.44868527926425</v>
       </c>
     </row>
     <row r="19">
@@ -216,7 +216,7 @@
         <v>43221.0</v>
       </c>
       <c r="B19" t="n">
-        <v>223.20397854834792</v>
+        <v>223.18377910213505</v>
       </c>
     </row>
     <row r="20">
@@ -224,7 +224,7 @@
         <v>43252.0</v>
       </c>
       <c r="B20" t="n">
-        <v>225.53534082888802</v>
+        <v>225.31601600166206</v>
       </c>
     </row>
     <row r="21">
@@ -232,7 +232,7 @@
         <v>43282.0</v>
       </c>
       <c r="B21" t="n">
-        <v>227.72301007572432</v>
+        <v>227.47514703840724</v>
       </c>
     </row>
     <row r="22">
@@ -240,7 +240,7 @@
         <v>43313.0</v>
       </c>
       <c r="B22" t="n">
-        <v>229.83683476448357</v>
+        <v>229.77326919088765</v>
       </c>
     </row>
     <row r="23">
@@ -248,7 +248,7 @@
         <v>43344.0</v>
       </c>
       <c r="B23" t="n">
-        <v>233.37587323496456</v>
+        <v>233.97838188808822</v>
       </c>
     </row>
     <row r="24">
@@ -256,7 +256,7 @@
         <v>43374.0</v>
       </c>
       <c r="B24" t="n">
-        <v>235.68151481699024</v>
+        <v>236.85267037622947</v>
       </c>
     </row>
     <row r="25">
@@ -264,7 +264,7 @@
         <v>43405.0</v>
       </c>
       <c r="B25" t="n">
-        <v>236.6925548925005</v>
+        <v>237.74420281571366</v>
       </c>
     </row>
     <row r="26">
@@ -272,7 +272,7 @@
         <v>43435.0</v>
       </c>
       <c r="B26" t="n">
-        <v>236.77323389890208</v>
+        <v>237.42244929030412</v>
       </c>
     </row>
     <row r="27">
@@ -280,7 +280,7 @@
         <v>43466.0</v>
       </c>
       <c r="B27" t="n">
-        <v>236.79933973097232</v>
+        <v>236.9517420863985</v>
       </c>
     </row>
     <row r="28">
@@ -288,7 +288,7 @@
         <v>43497.0</v>
       </c>
       <c r="B28" t="n">
-        <v>237.58541664791397</v>
+        <v>237.46681780987444</v>
       </c>
     </row>
     <row r="29">
@@ -296,7 +296,7 @@
         <v>43525.0</v>
       </c>
       <c r="B29" t="n">
-        <v>238.39871819856194</v>
+        <v>238.19892981889097</v>
       </c>
     </row>
     <row r="30">
@@ -304,7 +304,7 @@
         <v>43556.0</v>
       </c>
       <c r="B30" t="n">
-        <v>238.12253426556566</v>
+        <v>237.50102348195054</v>
       </c>
     </row>
     <row r="31">
@@ -312,7 +312,7 @@
         <v>43586.0</v>
       </c>
       <c r="B31" t="n">
-        <v>237.99115994027315</v>
+        <v>237.00928767482782</v>
       </c>
     </row>
     <row r="32">
@@ -320,7 +320,7 @@
         <v>43617.0</v>
       </c>
       <c r="B32" t="n">
-        <v>237.95842187300266</v>
+        <v>236.82829655251987</v>
       </c>
     </row>
     <row r="33">
@@ -328,7 +328,7 @@
         <v>43647.0</v>
       </c>
       <c r="B33" t="n">
-        <v>239.01072848024248</v>
+        <v>237.91944613880855</v>
       </c>
     </row>
     <row r="34">
@@ -336,7 +336,7 @@
         <v>43678.0</v>
       </c>
       <c r="B34" t="n">
-        <v>240.82147712376545</v>
+        <v>240.12089258270132</v>
       </c>
     </row>
     <row r="35">
@@ -344,7 +344,7 @@
         <v>43709.0</v>
       </c>
       <c r="B35" t="n">
-        <v>241.88944151703845</v>
+        <v>241.59500075894508</v>
       </c>
     </row>
     <row r="36">
@@ -352,7 +352,7 @@
         <v>43739.0</v>
       </c>
       <c r="B36" t="n">
-        <v>244.62224468737642</v>
+        <v>244.8533340278737</v>
       </c>
     </row>
     <row r="37">
@@ -360,7 +360,7 @@
         <v>43770.0</v>
       </c>
       <c r="B37" t="n">
-        <v>246.0044667195036</v>
+        <v>246.6243391735479</v>
       </c>
     </row>
     <row r="38">
@@ -368,7 +368,7 @@
         <v>43800.0</v>
       </c>
       <c r="B38" t="n">
-        <v>248.56467788860124</v>
+        <v>249.46932353916714</v>
       </c>
     </row>
     <row r="39">
@@ -376,7 +376,7 @@
         <v>43831.0</v>
       </c>
       <c r="B39" t="n">
-        <v>249.28220572575873</v>
+        <v>249.81705968817135</v>
       </c>
     </row>
     <row r="40">
@@ -384,7 +384,7 @@
         <v>43862.0</v>
       </c>
       <c r="B40" t="n">
-        <v>248.7526134995086</v>
+        <v>248.78073952023854</v>
       </c>
     </row>
     <row r="41">
@@ -392,7 +392,7 @@
         <v>43891.0</v>
       </c>
       <c r="B41" t="n">
-        <v>250.14310260029674</v>
+        <v>249.99108677212587</v>
       </c>
     </row>
     <row r="42">
@@ -400,7 +400,7 @@
         <v>43922.0</v>
       </c>
       <c r="B42" t="n">
-        <v>249.16966531708644</v>
+        <v>248.4665824052293</v>
       </c>
     </row>
     <row r="43">
@@ -408,7 +408,7 @@
         <v>43952.0</v>
       </c>
       <c r="B43" t="n">
-        <v>252.1542891580296</v>
+        <v>251.9836546442195</v>
       </c>
     </row>
     <row r="44">
@@ -416,7 +416,7 @@
         <v>43983.0</v>
       </c>
       <c r="B44" t="n">
-        <v>255.1402578844736</v>
+        <v>255.77740432988563</v>
       </c>
     </row>
     <row r="45">
@@ -424,7 +424,7 @@
         <v>44013.0</v>
       </c>
       <c r="B45" t="n">
-        <v>255.50705538209942</v>
+        <v>255.91742294600127</v>
       </c>
     </row>
     <row r="46">
@@ -432,7 +432,7 @@
         <v>44044.0</v>
       </c>
       <c r="B46" t="n">
-        <v>256.84333834167023</v>
+        <v>257.14739222912846</v>
       </c>
     </row>
     <row r="47">
@@ -440,7 +440,7 @@
         <v>44075.0</v>
       </c>
       <c r="B47" t="n">
-        <v>257.5093081656721</v>
+        <v>257.50729231301597</v>
       </c>
     </row>
     <row r="48">
@@ -448,7 +448,7 @@
         <v>44105.0</v>
       </c>
       <c r="B48" t="n">
-        <v>256.71370507791147</v>
+        <v>256.05659101540675</v>
       </c>
     </row>
     <row r="49">
@@ -456,7 +456,7 @@
         <v>44136.0</v>
       </c>
       <c r="B49" t="n">
-        <v>258.1032380574574</v>
+        <v>257.5225130828676</v>
       </c>
     </row>
     <row r="50">
@@ -464,7 +464,7 @@
         <v>44166.0</v>
       </c>
       <c r="B50" t="n">
-        <v>258.10429792996246</v>
+        <v>257.17491644924854</v>
       </c>
     </row>
     <row r="51">
@@ -472,7 +472,7 @@
         <v>44197.0</v>
       </c>
       <c r="B51" t="n">
-        <v>259.2357858486874</v>
+        <v>258.43397655223987</v>
       </c>
     </row>
     <row r="52">
@@ -480,7 +480,7 @@
         <v>44228.0</v>
       </c>
       <c r="B52" t="n">
-        <v>262.4978128852151</v>
+        <v>262.2866555764147</v>
       </c>
     </row>
     <row r="53">
@@ -488,7 +488,7 @@
         <v>44256.0</v>
       </c>
       <c r="B53" t="n">
-        <v>264.6714799668643</v>
+        <v>265.1065392281275</v>
       </c>
     </row>
     <row r="54">
@@ -496,7 +496,7 @@
         <v>44287.0</v>
       </c>
       <c r="B54" t="n">
-        <v>268.74785751541447</v>
+        <v>269.8943460575858</v>
       </c>
     </row>
     <row r="55">
@@ -504,7 +504,7 @@
         <v>44317.0</v>
       </c>
       <c r="B55" t="n">
-        <v>261.56781521403883</v>
+        <v>262.42665801863626</v>
       </c>
     </row>
     <row r="56">
@@ -512,7 +512,7 @@
         <v>44348.0</v>
       </c>
       <c r="B56" t="n">
-        <v>271.9409652662664</v>
+        <v>272.73738242789767</v>
       </c>
     </row>
     <row r="57">
@@ -520,7 +520,7 @@
         <v>44378.0</v>
       </c>
       <c r="B57" t="n">
-        <v>273.99285294284476</v>
+        <v>274.36661300376244</v>
       </c>
     </row>
     <row r="58">
@@ -528,7 +528,7 @@
         <v>44409.0</v>
       </c>
       <c r="B58" t="n">
-        <v>274.62407007134993</v>
+        <v>274.17547402225676</v>
       </c>
     </row>
     <row r="59">
@@ -536,7 +536,7 @@
         <v>44440.0</v>
       </c>
       <c r="B59" t="n">
-        <v>277.4518167242626</v>
+        <v>276.4182964303806</v>
       </c>
     </row>
     <row r="60">
@@ -544,7 +544,7 @@
         <v>44470.0</v>
       </c>
       <c r="B60" t="n">
-        <v>280.50800268548346</v>
+        <v>278.85187687391686</v>
       </c>
     </row>
     <row r="61">
@@ -552,7 +552,7 @@
         <v>44501.0</v>
       </c>
       <c r="B61" t="n">
-        <v>285.9085114900613</v>
+        <v>284.5003288335227</v>
       </c>
     </row>
     <row r="62">
@@ -560,7 +560,7 @@
         <v>44531.0</v>
       </c>
       <c r="B62" t="n">
-        <v>314.3166502765583</v>
+        <v>312.80581710963634</v>
       </c>
     </row>
     <row r="63">
@@ -568,7 +568,7 @@
         <v>44562.0</v>
       </c>
       <c r="B63" t="n">
-        <v>321.8849945724787</v>
+        <v>321.4236680232021</v>
       </c>
     </row>
     <row r="64">
@@ -576,7 +576,7 @@
         <v>44593.0</v>
       </c>
       <c r="B64" t="n">
-        <v>328.45755668156573</v>
+        <v>328.67490921634135</v>
       </c>
     </row>
     <row r="65">
@@ -584,7 +584,7 @@
         <v>44621.0</v>
       </c>
       <c r="B65" t="n">
-        <v>335.245803044676</v>
+        <v>335.74282432509267</v>
       </c>
     </row>
     <row r="66">
@@ -592,7 +592,7 @@
         <v>44652.0</v>
       </c>
       <c r="B66" t="n">
-        <v>342.5276052006318</v>
+        <v>343.50299355871243</v>
       </c>
     </row>
     <row r="67">
@@ -600,7 +600,7 @@
         <v>44682.0</v>
       </c>
       <c r="B67" t="n">
-        <v>344.90155308576226</v>
+        <v>344.88922432836563</v>
       </c>
     </row>
     <row r="68">
@@ -608,7 +608,7 @@
         <v>44713.0</v>
       </c>
       <c r="B68" t="n">
-        <v>351.0609813097751</v>
+        <v>350.9707963584695</v>
       </c>
     </row>
     <row r="69">
@@ -616,7 +616,7 @@
         <v>44743.0</v>
       </c>
       <c r="B69" t="n">
-        <v>358.3026765148345</v>
+        <v>359.3916067322332</v>
       </c>
     </row>
     <row r="70">
@@ -624,7 +624,7 @@
         <v>44774.0</v>
       </c>
       <c r="B70" t="n">
-        <v>366.3363932339417</v>
+        <v>368.19605344586085</v>
       </c>
     </row>
     <row r="71">
@@ -632,7 +632,7 @@
         <v>44805.0</v>
       </c>
       <c r="B71" t="n">
-        <v>372.75952006545464</v>
+        <v>374.6439335282621</v>
       </c>
     </row>
     <row r="72">
@@ -640,7 +640,7 @@
         <v>44835.0</v>
       </c>
       <c r="B72" t="n">
-        <v>376.83418904816034</v>
+        <v>377.75490837409956</v>
       </c>
     </row>
     <row r="73">
@@ -648,7 +648,7 @@
         <v>44866.0</v>
       </c>
       <c r="B73" t="n">
-        <v>380.9199021362587</v>
+        <v>380.9818247925843</v>
       </c>
     </row>
     <row r="74">
@@ -656,7 +656,7 @@
         <v>44896.0</v>
       </c>
       <c r="B74" t="n">
-        <v>387.1399678606595</v>
+        <v>386.88761448079896</v>
       </c>
     </row>
     <row r="75">
@@ -664,7 +664,7 @@
         <v>44927.0</v>
       </c>
       <c r="B75" t="n">
-        <v>393.54356470628</v>
+        <v>393.89311372586525</v>
       </c>
     </row>
     <row r="76">
@@ -672,7 +672,7 @@
         <v>44958.0</v>
       </c>
       <c r="B76" t="n">
-        <v>398.4908029496275</v>
+        <v>397.53788002196</v>
       </c>
     </row>
     <row r="77">
@@ -680,7 +680,7 @@
         <v>44986.0</v>
       </c>
       <c r="B77" t="n">
-        <v>401.270472654946</v>
+        <v>398.06142160882837</v>
       </c>
     </row>
     <row r="78">
@@ -688,7 +688,7 @@
         <v>45017.0</v>
       </c>
       <c r="B78" t="n">
-        <v>406.9211120789845</v>
+        <v>402.9796012431773</v>
       </c>
     </row>
     <row r="79">
@@ -696,7 +696,7 @@
         <v>45047.0</v>
       </c>
       <c r="B79" t="n">
-        <v>419.13988247294924</v>
+        <v>417.15132922802707</v>
       </c>
     </row>
     <row r="80">
@@ -704,7 +704,7 @@
         <v>45078.0</v>
       </c>
       <c r="B80" t="n">
-        <v>429.4194974809683</v>
+        <v>428.77447925711846</v>
       </c>
     </row>
     <row r="81">
@@ -712,7 +712,7 @@
         <v>45108.0</v>
       </c>
       <c r="B81" t="n">
-        <v>444.0504021738957</v>
+        <v>444.90319319474935</v>
       </c>
     </row>
     <row r="82">
@@ -720,7 +720,7 @@
         <v>45139.0</v>
       </c>
       <c r="B82" t="n">
-        <v>484.0821503246248</v>
+        <v>485.4918516061923</v>
       </c>
     </row>
     <row r="83">
@@ -728,7 +728,7 @@
         <v>45170.0</v>
       </c>
       <c r="B83" t="n">
-        <v>495.2821475600604</v>
+        <v>496.39251683703935</v>
       </c>
     </row>
     <row r="84">
@@ -736,7 +736,7 @@
         <v>45200.0</v>
       </c>
       <c r="B84" t="n">
-        <v>510.62658362942767</v>
+        <v>512.3379838862592</v>
       </c>
     </row>
     <row r="85">
@@ -744,7 +744,7 @@
         <v>45231.0</v>
       </c>
       <c r="B85" t="n">
-        <v>523.5382530936981</v>
+        <v>524.4629370292813</v>
       </c>
     </row>
     <row r="86">
@@ -752,7 +752,7 @@
         <v>45261.0</v>
       </c>
       <c r="B86" t="n">
-        <v>534.9362964527354</v>
+        <v>534.8857893432213</v>
       </c>
     </row>
     <row r="87">
@@ -760,7 +760,7 @@
         <v>45292.0</v>
       </c>
       <c r="B87" t="n">
-        <v>551.5028573380405</v>
+        <v>551.2886863759398</v>
       </c>
     </row>
     <row r="88">
@@ -768,7 +768,7 @@
         <v>45323.0</v>
       </c>
       <c r="B88" t="n">
-        <v>561.769939555842</v>
+        <v>559.7272457171574</v>
       </c>
     </row>
     <row r="89">
@@ -776,7 +776,7 @@
         <v>45352.0</v>
       </c>
       <c r="B89" t="n">
-        <v>575.8258241539631</v>
+        <v>572.9147005750893</v>
       </c>
     </row>
     <row r="90">
@@ -784,7 +784,7 @@
         <v>45383.0</v>
       </c>
       <c r="B90" t="n">
-        <v>592.7920664617762</v>
+        <v>588.8565872018105</v>
       </c>
     </row>
     <row r="91">
@@ -792,7 +792,7 @@
         <v>45413.0</v>
       </c>
       <c r="B91" t="n">
-        <v>608.1847566442287</v>
+        <v>614.9108059577303</v>
       </c>
     </row>
     <row r="92">
@@ -800,7 +800,7 @@
         <v>45444.0</v>
       </c>
       <c r="B92" t="n">
-        <v>620.9813744015178</v>
+        <v>630.3491655726349</v>
       </c>
     </row>
     <row r="93">
@@ -808,7 +808,7 @@
         <v>45474.0</v>
       </c>
       <c r="B93" t="n">
-        <v>629.7338703394911</v>
+        <v>635.1107480911887</v>
       </c>
     </row>
     <row r="94">
@@ -816,7 +816,7 @@
         <v>45505.0</v>
       </c>
       <c r="B94" t="n">
-        <v>643.3351378579903</v>
+        <v>646.0649465012401</v>
       </c>
     </row>
     <row r="95">
@@ -824,7 +824,7 @@
         <v>45536.0</v>
       </c>
       <c r="B95" t="n">
-        <v>659.1595416693158</v>
+        <v>660.2501020991281</v>
       </c>
     </row>
     <row r="96">
@@ -832,7 +832,7 @@
         <v>45566.0</v>
       </c>
       <c r="B96" t="n">
-        <v>675.6236661568086</v>
+        <v>675.1351398752462</v>
       </c>
     </row>
     <row r="97">
@@ -840,7 +840,7 @@
         <v>45597.0</v>
       </c>
       <c r="B97" t="n">
-        <v>690.7879168665958</v>
+        <v>687.0447952610494</v>
       </c>
     </row>
     <row r="98">
@@ -848,7 +848,7 @@
         <v>45627.0</v>
       </c>
       <c r="B98" t="n">
-        <v>708.9314771759122</v>
+        <v>701.3889517632307</v>
       </c>
     </row>
     <row r="99">
@@ -856,7 +856,7 @@
         <v>45658.0</v>
       </c>
       <c r="B99" t="n">
-        <v>720.0508419436546</v>
+        <v>706.0330395217455</v>
       </c>
     </row>
     <row r="100">
@@ -864,7 +864,7 @@
         <v>45689.0</v>
       </c>
       <c r="B100" t="n">
-        <v>742.8565418373204</v>
+        <v>726.5686232401166</v>
       </c>
     </row>
     <row r="101">
@@ -872,7 +872,7 @@
         <v>45717.0</v>
       </c>
       <c r="B101" t="n">
-        <v>765.0980803253867</v>
+        <v>745.3747797052188</v>
       </c>
     </row>
     <row r="102">
@@ -880,7 +880,15 @@
         <v>45748.0</v>
       </c>
       <c r="B102" t="n">
-        <v>778.3243265147481</v>
+        <v>751.469809288082</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>45778.0</v>
+      </c>
+      <c r="B103" t="n">
+        <v>744.1065830959078</v>
       </c>
     </row>
   </sheetData>

--- a/giyimma.xlsx
+++ b/giyimma.xlsx
@@ -80,7 +80,7 @@
         <v>42705.0</v>
       </c>
       <c r="B2" t="n">
-        <v>188.60583969667408</v>
+        <v>188.64362618215802</v>
       </c>
     </row>
     <row r="3">
@@ -88,7 +88,7 @@
         <v>42736.0</v>
       </c>
       <c r="B3" t="n">
-        <v>189.95958241208072</v>
+        <v>190.00857245008814</v>
       </c>
     </row>
     <row r="4">
@@ -96,7 +96,7 @@
         <v>42767.0</v>
       </c>
       <c r="B4" t="n">
-        <v>192.0720431607501</v>
+        <v>192.08246624319764</v>
       </c>
     </row>
     <row r="5">
@@ -104,7 +104,7 @@
         <v>42795.0</v>
       </c>
       <c r="B5" t="n">
-        <v>194.30001785335503</v>
+        <v>194.2746408806552</v>
       </c>
     </row>
     <row r="6">
@@ -112,7 +112,7 @@
         <v>42826.0</v>
       </c>
       <c r="B6" t="n">
-        <v>195.804468727676</v>
+        <v>195.7393252878964</v>
       </c>
     </row>
     <row r="7">
@@ -120,7 +120,7 @@
         <v>42856.0</v>
       </c>
       <c r="B7" t="n">
-        <v>198.0265708025526</v>
+        <v>197.9352368273115</v>
       </c>
     </row>
     <row r="8">
@@ -128,7 +128,7 @@
         <v>42887.0</v>
       </c>
       <c r="B8" t="n">
-        <v>199.71388622626196</v>
+        <v>199.62551127933983</v>
       </c>
     </row>
     <row r="9">
@@ -136,7 +136,7 @@
         <v>42917.0</v>
       </c>
       <c r="B9" t="n">
-        <v>201.33109628772164</v>
+        <v>201.26388518427484</v>
       </c>
     </row>
     <row r="10">
@@ -144,7 +144,7 @@
         <v>42948.0</v>
       </c>
       <c r="B10" t="n">
-        <v>202.40824328684582</v>
+        <v>202.41271140599855</v>
       </c>
     </row>
     <row r="11">
@@ -152,7 +152,7 @@
         <v>42979.0</v>
       </c>
       <c r="B11" t="n">
-        <v>202.939442616915</v>
+        <v>203.03444025457947</v>
       </c>
     </row>
     <row r="12">
@@ -160,7 +160,7 @@
         <v>43009.0</v>
       </c>
       <c r="B12" t="n">
-        <v>204.41089209310155</v>
+        <v>204.5316079394801</v>
       </c>
     </row>
     <row r="13">
@@ -168,7 +168,7 @@
         <v>43040.0</v>
       </c>
       <c r="B13" t="n">
-        <v>206.96973359849443</v>
+        <v>207.05655979667398</v>
       </c>
     </row>
     <row r="14">
@@ -176,7 +176,7 @@
         <v>43070.0</v>
       </c>
       <c r="B14" t="n">
-        <v>209.7279761519911</v>
+        <v>209.78941539382626</v>
       </c>
     </row>
     <row r="15">
@@ -184,7 +184,7 @@
         <v>43101.0</v>
       </c>
       <c r="B15" t="n">
-        <v>212.89012513519748</v>
+        <v>212.92559661351882</v>
       </c>
     </row>
     <row r="16">
@@ -192,7 +192,7 @@
         <v>43132.0</v>
       </c>
       <c r="B16" t="n">
-        <v>214.9233728808052</v>
+        <v>215.00032244709487</v>
       </c>
     </row>
     <row r="17">
@@ -200,7 +200,7 @@
         <v>43160.0</v>
       </c>
       <c r="B17" t="n">
-        <v>216.56040638747345</v>
+        <v>216.66025617678977</v>
       </c>
     </row>
     <row r="18">
@@ -208,7 +208,7 @@
         <v>43191.0</v>
       </c>
       <c r="B18" t="n">
-        <v>221.44868527926425</v>
+        <v>221.4270846314971</v>
       </c>
     </row>
     <row r="19">
@@ -216,7 +216,7 @@
         <v>43221.0</v>
       </c>
       <c r="B19" t="n">
-        <v>223.18377910213505</v>
+        <v>223.18784874256218</v>
       </c>
     </row>
     <row r="20">
@@ -224,7 +224,7 @@
         <v>43252.0</v>
       </c>
       <c r="B20" t="n">
-        <v>225.31601600166206</v>
+        <v>225.36666707509275</v>
       </c>
     </row>
     <row r="21">
@@ -232,7 +232,7 @@
         <v>43282.0</v>
       </c>
       <c r="B21" t="n">
-        <v>227.47514703840724</v>
+        <v>227.53210125315428</v>
       </c>
     </row>
     <row r="22">
@@ -240,7 +240,7 @@
         <v>43313.0</v>
       </c>
       <c r="B22" t="n">
-        <v>229.77326919088765</v>
+        <v>229.79360369424577</v>
       </c>
     </row>
     <row r="23">
@@ -248,7 +248,7 @@
         <v>43344.0</v>
       </c>
       <c r="B23" t="n">
-        <v>233.97838188808822</v>
+        <v>233.84740563921144</v>
       </c>
     </row>
     <row r="24">
@@ -256,7 +256,7 @@
         <v>43374.0</v>
       </c>
       <c r="B24" t="n">
-        <v>236.85267037622947</v>
+        <v>236.58899974653227</v>
       </c>
     </row>
     <row r="25">
@@ -264,7 +264,7 @@
         <v>43405.0</v>
       </c>
       <c r="B25" t="n">
-        <v>237.74420281571366</v>
+        <v>237.4989089889015</v>
       </c>
     </row>
     <row r="26">
@@ -272,7 +272,7 @@
         <v>43435.0</v>
       </c>
       <c r="B26" t="n">
-        <v>237.42244929030412</v>
+        <v>237.26098739321725</v>
       </c>
     </row>
     <row r="27">
@@ -280,7 +280,7 @@
         <v>43466.0</v>
       </c>
       <c r="B27" t="n">
-        <v>236.9517420863985</v>
+        <v>236.9071276274876</v>
       </c>
     </row>
     <row r="28">
@@ -288,7 +288,7 @@
         <v>43497.0</v>
       </c>
       <c r="B28" t="n">
-        <v>237.46681780987444</v>
+        <v>237.49111434941062</v>
       </c>
     </row>
     <row r="29">
@@ -296,7 +296,7 @@
         <v>43525.0</v>
       </c>
       <c r="B29" t="n">
-        <v>238.19892981889097</v>
+        <v>238.24253003937994</v>
       </c>
     </row>
     <row r="30">
@@ -304,7 +304,7 @@
         <v>43556.0</v>
       </c>
       <c r="B30" t="n">
-        <v>237.50102348195054</v>
+        <v>237.63869489331944</v>
       </c>
     </row>
     <row r="31">
@@ -312,7 +312,7 @@
         <v>43586.0</v>
       </c>
       <c r="B31" t="n">
-        <v>237.00928767482782</v>
+        <v>237.21951222405704</v>
       </c>
     </row>
     <row r="32">
@@ -320,7 +320,7 @@
         <v>43617.0</v>
       </c>
       <c r="B32" t="n">
-        <v>236.82829655251987</v>
+        <v>237.06538066642773</v>
       </c>
     </row>
     <row r="33">
@@ -328,7 +328,7 @@
         <v>43647.0</v>
       </c>
       <c r="B33" t="n">
-        <v>237.91944613880855</v>
+        <v>238.15112333039644</v>
       </c>
     </row>
     <row r="34">
@@ -336,7 +336,7 @@
         <v>43678.0</v>
       </c>
       <c r="B34" t="n">
-        <v>240.12089258270132</v>
+        <v>240.26519768627318</v>
       </c>
     </row>
     <row r="35">
@@ -344,7 +344,7 @@
         <v>43709.0</v>
       </c>
       <c r="B35" t="n">
-        <v>241.59500075894508</v>
+        <v>241.64577808445117</v>
       </c>
     </row>
     <row r="36">
@@ -352,7 +352,7 @@
         <v>43739.0</v>
       </c>
       <c r="B36" t="n">
-        <v>244.8533340278737</v>
+        <v>244.78532501564433</v>
       </c>
     </row>
     <row r="37">
@@ -360,7 +360,7 @@
         <v>43770.0</v>
       </c>
       <c r="B37" t="n">
-        <v>246.6243391735479</v>
+        <v>246.4725628149639</v>
       </c>
     </row>
     <row r="38">
@@ -368,7 +368,7 @@
         <v>43800.0</v>
       </c>
       <c r="B38" t="n">
-        <v>249.46932353916714</v>
+        <v>249.25887301097993</v>
       </c>
     </row>
     <row r="39">
@@ -376,7 +376,7 @@
         <v>43831.0</v>
       </c>
       <c r="B39" t="n">
-        <v>249.81705968817135</v>
+        <v>249.69693221615245</v>
       </c>
     </row>
     <row r="40">
@@ -384,7 +384,7 @@
         <v>43862.0</v>
       </c>
       <c r="B40" t="n">
-        <v>248.78073952023854</v>
+        <v>248.7729421530687</v>
       </c>
     </row>
     <row r="41">
@@ -392,7 +392,7 @@
         <v>43891.0</v>
       </c>
       <c r="B41" t="n">
-        <v>249.99108677212587</v>
+        <v>250.00824532194736</v>
       </c>
     </row>
     <row r="42">
@@ -400,7 +400,7 @@
         <v>43922.0</v>
       </c>
       <c r="B42" t="n">
-        <v>248.4665824052293</v>
+        <v>248.6121735513424</v>
       </c>
     </row>
     <row r="43">
@@ -408,7 +408,7 @@
         <v>43952.0</v>
       </c>
       <c r="B43" t="n">
-        <v>251.9836546442195</v>
+        <v>252.01315933849105</v>
       </c>
     </row>
     <row r="44">
@@ -416,7 +416,7 @@
         <v>43983.0</v>
       </c>
       <c r="B44" t="n">
-        <v>255.77740432988563</v>
+        <v>255.62755060317448</v>
       </c>
     </row>
     <row r="45">
@@ -424,7 +424,7 @@
         <v>44013.0</v>
       </c>
       <c r="B45" t="n">
-        <v>255.91742294600127</v>
+        <v>255.83283313989642</v>
       </c>
     </row>
     <row r="46">
@@ -432,7 +432,7 @@
         <v>44044.0</v>
       </c>
       <c r="B46" t="n">
-        <v>257.14739222912846</v>
+        <v>257.0859020966095</v>
       </c>
     </row>
     <row r="47">
@@ -440,7 +440,7 @@
         <v>44075.0</v>
       </c>
       <c r="B47" t="n">
-        <v>257.50729231301597</v>
+        <v>257.5159620273279</v>
       </c>
     </row>
     <row r="48">
@@ -448,7 +448,7 @@
         <v>44105.0</v>
       </c>
       <c r="B48" t="n">
-        <v>256.05659101540675</v>
+        <v>256.21840810105454</v>
       </c>
     </row>
     <row r="49">
@@ -456,7 +456,7 @@
         <v>44136.0</v>
       </c>
       <c r="B49" t="n">
-        <v>257.5225130828676</v>
+        <v>257.6535970242736</v>
       </c>
     </row>
     <row r="50">
@@ -464,7 +464,7 @@
         <v>44166.0</v>
       </c>
       <c r="B50" t="n">
-        <v>257.17491644924854</v>
+        <v>257.3689958157773</v>
       </c>
     </row>
     <row r="51">
@@ -472,7 +472,7 @@
         <v>44197.0</v>
       </c>
       <c r="B51" t="n">
-        <v>258.43397655223987</v>
+        <v>258.5960014530676</v>
       </c>
     </row>
     <row r="52">
@@ -480,7 +480,7 @@
         <v>44228.0</v>
       </c>
       <c r="B52" t="n">
-        <v>262.2866555764147</v>
+        <v>262.3142173831906</v>
       </c>
     </row>
     <row r="53">
@@ -488,7 +488,7 @@
         <v>44256.0</v>
       </c>
       <c r="B53" t="n">
-        <v>265.1065392281275</v>
+        <v>265.00052856468955</v>
       </c>
     </row>
     <row r="54">
@@ -496,7 +496,7 @@
         <v>44287.0</v>
       </c>
       <c r="B54" t="n">
-        <v>269.8943460575858</v>
+        <v>269.6281988983718</v>
       </c>
     </row>
     <row r="55">
@@ -504,7 +504,7 @@
         <v>44317.0</v>
       </c>
       <c r="B55" t="n">
-        <v>262.42665801863626</v>
+        <v>262.21847898498277</v>
       </c>
     </row>
     <row r="56">
@@ -512,7 +512,7 @@
         <v>44348.0</v>
       </c>
       <c r="B56" t="n">
-        <v>272.73738242789767</v>
+        <v>272.5459380818691</v>
       </c>
     </row>
     <row r="57">
@@ -520,7 +520,7 @@
         <v>44378.0</v>
       </c>
       <c r="B57" t="n">
-        <v>274.36661300376244</v>
+        <v>274.2599883431117</v>
       </c>
     </row>
     <row r="58">
@@ -528,7 +528,7 @@
         <v>44409.0</v>
       </c>
       <c r="B58" t="n">
-        <v>274.17547402225676</v>
+        <v>274.25054627890313</v>
       </c>
     </row>
     <row r="59">
@@ -536,7 +536,7 @@
         <v>44440.0</v>
       </c>
       <c r="B59" t="n">
-        <v>276.4182964303806</v>
+        <v>276.6328843413635</v>
       </c>
     </row>
     <row r="60">
@@ -544,7 +544,7 @@
         <v>44470.0</v>
       </c>
       <c r="B60" t="n">
-        <v>278.85187687391686</v>
+        <v>279.23662367686165</v>
       </c>
     </row>
     <row r="61">
@@ -552,7 +552,7 @@
         <v>44501.0</v>
       </c>
       <c r="B61" t="n">
-        <v>284.5003288335227</v>
+        <v>284.8401647326849</v>
       </c>
     </row>
     <row r="62">
@@ -560,7 +560,7 @@
         <v>44531.0</v>
       </c>
       <c r="B62" t="n">
-        <v>312.80581710963634</v>
+        <v>313.1249757514501</v>
       </c>
     </row>
     <row r="63">
@@ -568,7 +568,7 @@
         <v>44562.0</v>
       </c>
       <c r="B63" t="n">
-        <v>321.4236680232021</v>
+        <v>321.4950972569487</v>
       </c>
     </row>
     <row r="64">
@@ -576,7 +576,7 @@
         <v>44593.0</v>
       </c>
       <c r="B64" t="n">
-        <v>328.67490921634135</v>
+        <v>328.61528502686355</v>
       </c>
     </row>
     <row r="65">
@@ -584,7 +584,7 @@
         <v>44621.0</v>
       </c>
       <c r="B65" t="n">
-        <v>335.74282432509267</v>
+        <v>335.645049165038</v>
       </c>
     </row>
     <row r="66">
@@ -592,7 +592,7 @@
         <v>44652.0</v>
       </c>
       <c r="B66" t="n">
-        <v>343.50299355871243</v>
+        <v>343.2940192290462</v>
       </c>
     </row>
     <row r="67">
@@ -600,7 +600,7 @@
         <v>44682.0</v>
       </c>
       <c r="B67" t="n">
-        <v>344.88922432836563</v>
+        <v>344.87954458385093</v>
       </c>
     </row>
     <row r="68">
@@ -608,7 +608,7 @@
         <v>44713.0</v>
       </c>
       <c r="B68" t="n">
-        <v>350.9707963584695</v>
+        <v>350.9665033125281</v>
       </c>
     </row>
     <row r="69">
@@ -616,7 +616,7 @@
         <v>44743.0</v>
       </c>
       <c r="B69" t="n">
-        <v>359.3916067322332</v>
+        <v>359.11534272769325</v>
       </c>
     </row>
     <row r="70">
@@ -624,7 +624,7 @@
         <v>44774.0</v>
       </c>
       <c r="B70" t="n">
-        <v>368.19605344586085</v>
+        <v>367.74990930654445</v>
       </c>
     </row>
     <row r="71">
@@ -632,7 +632,7 @@
         <v>44805.0</v>
       </c>
       <c r="B71" t="n">
-        <v>374.6439335282621</v>
+        <v>374.2131401606825</v>
       </c>
     </row>
     <row r="72">
@@ -640,7 +640,7 @@
         <v>44835.0</v>
       </c>
       <c r="B72" t="n">
-        <v>377.75490837409956</v>
+        <v>377.55642014818255</v>
       </c>
     </row>
     <row r="73">
@@ -648,7 +648,7 @@
         <v>44866.0</v>
       </c>
       <c r="B73" t="n">
-        <v>380.9818247925843</v>
+        <v>380.9907945097705</v>
       </c>
     </row>
     <row r="74">
@@ -656,7 +656,7 @@
         <v>44896.0</v>
       </c>
       <c r="B74" t="n">
-        <v>386.88761448079896</v>
+        <v>386.9559631381735</v>
       </c>
     </row>
     <row r="75">
@@ -664,7 +664,7 @@
         <v>44927.0</v>
       </c>
       <c r="B75" t="n">
-        <v>393.89311372586525</v>
+        <v>393.814027427063</v>
       </c>
     </row>
     <row r="76">
@@ -672,7 +672,7 @@
         <v>44958.0</v>
       </c>
       <c r="B76" t="n">
-        <v>397.53788002196</v>
+        <v>397.750426592567</v>
       </c>
     </row>
     <row r="77">
@@ -680,7 +680,7 @@
         <v>44986.0</v>
       </c>
       <c r="B77" t="n">
-        <v>398.06142160882837</v>
+        <v>398.8014509247994</v>
       </c>
     </row>
     <row r="78">
@@ -688,7 +688,7 @@
         <v>45017.0</v>
       </c>
       <c r="B78" t="n">
-        <v>402.9796012431773</v>
+        <v>403.8790891880212</v>
       </c>
     </row>
     <row r="79">
@@ -696,7 +696,7 @@
         <v>45047.0</v>
       </c>
       <c r="B79" t="n">
-        <v>417.15132922802707</v>
+        <v>417.55619847233703</v>
       </c>
     </row>
     <row r="80">
@@ -704,7 +704,7 @@
         <v>45078.0</v>
       </c>
       <c r="B80" t="n">
-        <v>428.77447925711846</v>
+        <v>428.8774998383209</v>
       </c>
     </row>
     <row r="81">
@@ -712,7 +712,7 @@
         <v>45108.0</v>
       </c>
       <c r="B81" t="n">
-        <v>444.90319319474935</v>
+        <v>444.68288232108995</v>
       </c>
     </row>
     <row r="82">
@@ -720,7 +720,7 @@
         <v>45139.0</v>
       </c>
       <c r="B82" t="n">
-        <v>485.4918516061923</v>
+        <v>485.0864282189865</v>
       </c>
     </row>
     <row r="83">
@@ -728,7 +728,7 @@
         <v>45170.0</v>
       </c>
       <c r="B83" t="n">
-        <v>496.39251683703935</v>
+        <v>496.0735345103413</v>
       </c>
     </row>
     <row r="84">
@@ -736,7 +736,7 @@
         <v>45200.0</v>
       </c>
       <c r="B84" t="n">
-        <v>512.3379838862592</v>
+        <v>511.88550067862616</v>
       </c>
     </row>
     <row r="85">
@@ -744,7 +744,7 @@
         <v>45231.0</v>
       </c>
       <c r="B85" t="n">
-        <v>524.4629370292813</v>
+        <v>524.2302404425387</v>
       </c>
     </row>
     <row r="86">
@@ -752,7 +752,7 @@
         <v>45261.0</v>
       </c>
       <c r="B86" t="n">
-        <v>534.8857893432213</v>
+        <v>534.8864593373871</v>
       </c>
     </row>
     <row r="87">
@@ -760,7 +760,7 @@
         <v>45292.0</v>
       </c>
       <c r="B87" t="n">
-        <v>551.2886863759398</v>
+        <v>551.3476303886761</v>
       </c>
     </row>
     <row r="88">
@@ -768,7 +768,7 @@
         <v>45323.0</v>
       </c>
       <c r="B88" t="n">
-        <v>559.7272457171574</v>
+        <v>560.1749570952543</v>
       </c>
     </row>
     <row r="89">
@@ -776,7 +776,7 @@
         <v>45352.0</v>
       </c>
       <c r="B89" t="n">
-        <v>572.9147005750893</v>
+        <v>573.6430915540857</v>
       </c>
     </row>
     <row r="90">
@@ -784,7 +784,7 @@
         <v>45383.0</v>
       </c>
       <c r="B90" t="n">
-        <v>588.8565872018105</v>
+        <v>589.7264050976812</v>
       </c>
     </row>
     <row r="91">
@@ -792,7 +792,7 @@
         <v>45413.0</v>
       </c>
       <c r="B91" t="n">
-        <v>614.9108059577303</v>
+        <v>613.9136337222052</v>
       </c>
     </row>
     <row r="92">
@@ -800,7 +800,7 @@
         <v>45444.0</v>
       </c>
       <c r="B92" t="n">
-        <v>630.3491655726349</v>
+        <v>628.8427705217578</v>
       </c>
     </row>
     <row r="93">
@@ -808,7 +808,7 @@
         <v>45474.0</v>
       </c>
       <c r="B93" t="n">
-        <v>635.1107480911887</v>
+        <v>634.4346258544847</v>
       </c>
     </row>
     <row r="94">
@@ -816,7 +816,7 @@
         <v>45505.0</v>
       </c>
       <c r="B94" t="n">
-        <v>646.0649465012401</v>
+        <v>645.8111804984054</v>
       </c>
     </row>
     <row r="95">
@@ -824,7 +824,7 @@
         <v>45536.0</v>
       </c>
       <c r="B95" t="n">
-        <v>660.2501020991281</v>
+        <v>660.1454141589721</v>
       </c>
     </row>
     <row r="96">
@@ -832,7 +832,7 @@
         <v>45566.0</v>
       </c>
       <c r="B96" t="n">
-        <v>675.1351398752462</v>
+        <v>675.0854280190225</v>
       </c>
     </row>
     <row r="97">
@@ -840,7 +840,7 @@
         <v>45597.0</v>
       </c>
       <c r="B97" t="n">
-        <v>687.0447952610494</v>
+        <v>687.390397135679</v>
       </c>
     </row>
     <row r="98">
@@ -848,7 +848,7 @@
         <v>45627.0</v>
       </c>
       <c r="B98" t="n">
-        <v>701.3889517632307</v>
+        <v>702.1791266154275</v>
       </c>
     </row>
     <row r="99">
@@ -856,7 +856,7 @@
         <v>45658.0</v>
       </c>
       <c r="B99" t="n">
-        <v>706.0330395217455</v>
+        <v>707.8114030007371</v>
       </c>
     </row>
     <row r="100">
@@ -864,7 +864,7 @@
         <v>45689.0</v>
       </c>
       <c r="B100" t="n">
-        <v>726.5686232401166</v>
+        <v>728.2734650579977</v>
       </c>
     </row>
     <row r="101">
@@ -872,7 +872,7 @@
         <v>45717.0</v>
       </c>
       <c r="B101" t="n">
-        <v>745.3747797052188</v>
+        <v>747.0196945542942</v>
       </c>
     </row>
     <row r="102">
@@ -880,7 +880,7 @@
         <v>45748.0</v>
       </c>
       <c r="B102" t="n">
-        <v>751.469809288082</v>
+        <v>754.1769148302227</v>
       </c>
     </row>
     <row r="103">
@@ -888,7 +888,7 @@
         <v>45778.0</v>
       </c>
       <c r="B103" t="n">
-        <v>744.1065830959078</v>
+        <v>750.7191550798299</v>
       </c>
     </row>
   </sheetData>

--- a/giyimma.xlsx
+++ b/giyimma.xlsx
@@ -80,7 +80,7 @@
         <v>42705.0</v>
       </c>
       <c r="B2" t="n">
-        <v>188.64362618215802</v>
+        <v>188.48560628669912</v>
       </c>
     </row>
     <row r="3">
@@ -88,7 +88,7 @@
         <v>42736.0</v>
       </c>
       <c r="B3" t="n">
-        <v>190.00857245008814</v>
+        <v>189.76339071519703</v>
       </c>
     </row>
     <row r="4">
@@ -96,7 +96,7 @@
         <v>42767.0</v>
       </c>
       <c r="B4" t="n">
-        <v>192.08246624319764</v>
+        <v>192.03798156488347</v>
       </c>
     </row>
     <row r="5">
@@ -104,7 +104,7 @@
         <v>42795.0</v>
       </c>
       <c r="B5" t="n">
-        <v>194.2746408806552</v>
+        <v>194.4302500768847</v>
       </c>
     </row>
     <row r="6">
@@ -112,7 +112,7 @@
         <v>42826.0</v>
       </c>
       <c r="B6" t="n">
-        <v>195.7393252878964</v>
+        <v>196.18929480917186</v>
       </c>
     </row>
     <row r="7">
@@ -120,7 +120,7 @@
         <v>42856.0</v>
       </c>
       <c r="B7" t="n">
-        <v>197.9352368273115</v>
+        <v>198.52858510515645</v>
       </c>
     </row>
     <row r="8">
@@ -128,7 +128,7 @@
         <v>42887.0</v>
       </c>
       <c r="B8" t="n">
-        <v>199.62551127933983</v>
+        <v>200.17107172297582</v>
       </c>
     </row>
     <row r="9">
@@ -136,7 +136,7 @@
         <v>42917.0</v>
       </c>
       <c r="B9" t="n">
-        <v>201.26388518427484</v>
+        <v>201.67862379525116</v>
       </c>
     </row>
     <row r="10">
@@ -144,7 +144,7 @@
         <v>42948.0</v>
       </c>
       <c r="B10" t="n">
-        <v>202.41271140599855</v>
+        <v>202.43375192966832</v>
       </c>
     </row>
     <row r="11">
@@ -152,7 +152,7 @@
         <v>42979.0</v>
       </c>
       <c r="B11" t="n">
-        <v>203.03444025457947</v>
+        <v>202.60277139910158</v>
       </c>
     </row>
     <row r="12">
@@ -160,7 +160,7 @@
         <v>43009.0</v>
       </c>
       <c r="B12" t="n">
-        <v>204.5316079394801</v>
+        <v>204.04315551647372</v>
       </c>
     </row>
     <row r="13">
@@ -168,7 +168,7 @@
         <v>43040.0</v>
       </c>
       <c r="B13" t="n">
-        <v>207.05655979667398</v>
+        <v>206.7992137078651</v>
       </c>
     </row>
     <row r="14">
@@ -176,7 +176,7 @@
         <v>43070.0</v>
       </c>
       <c r="B14" t="n">
-        <v>209.78941539382626</v>
+        <v>209.6025504545387</v>
       </c>
     </row>
     <row r="15">
@@ -184,7 +184,7 @@
         <v>43101.0</v>
       </c>
       <c r="B15" t="n">
-        <v>212.92559661351882</v>
+        <v>212.83146077816656</v>
       </c>
     </row>
     <row r="16">
@@ -192,7 +192,7 @@
         <v>43132.0</v>
       </c>
       <c r="B16" t="n">
-        <v>215.00032244709487</v>
+        <v>214.64224524600039</v>
       </c>
     </row>
     <row r="17">
@@ -200,7 +200,7 @@
         <v>43160.0</v>
       </c>
       <c r="B17" t="n">
-        <v>216.66025617678977</v>
+        <v>216.17487544128343</v>
       </c>
     </row>
     <row r="18">
@@ -208,7 +208,7 @@
         <v>43191.0</v>
       </c>
       <c r="B18" t="n">
-        <v>221.4270846314971</v>
+        <v>221.630384656199</v>
       </c>
     </row>
     <row r="19">
@@ -216,7 +216,7 @@
         <v>43221.0</v>
       </c>
       <c r="B19" t="n">
-        <v>223.18784874256218</v>
+        <v>223.22257293529464</v>
       </c>
     </row>
     <row r="20">
@@ -224,7 +224,7 @@
         <v>43252.0</v>
       </c>
       <c r="B20" t="n">
-        <v>225.36666707509275</v>
+        <v>225.13862943614393</v>
       </c>
     </row>
     <row r="21">
@@ -232,7 +232,7 @@
         <v>43282.0</v>
       </c>
       <c r="B21" t="n">
-        <v>227.53210125315428</v>
+        <v>227.25902766817154</v>
       </c>
     </row>
     <row r="22">
@@ -240,7 +240,7 @@
         <v>43313.0</v>
       </c>
       <c r="B22" t="n">
-        <v>229.79360369424577</v>
+        <v>229.68211865815206</v>
       </c>
     </row>
     <row r="23">
@@ -248,7 +248,7 @@
         <v>43344.0</v>
       </c>
       <c r="B23" t="n">
-        <v>233.84740563921144</v>
+        <v>234.5693563528907</v>
       </c>
     </row>
     <row r="24">
@@ -256,7 +256,7 @@
         <v>43374.0</v>
       </c>
       <c r="B24" t="n">
-        <v>236.58899974653227</v>
+        <v>238.07289218855314</v>
       </c>
     </row>
     <row r="25">
@@ -264,7 +264,7 @@
         <v>43405.0</v>
       </c>
       <c r="B25" t="n">
-        <v>237.4989089889015</v>
+        <v>238.95311845053953</v>
       </c>
     </row>
     <row r="26">
@@ -272,7 +272,7 @@
         <v>43435.0</v>
       </c>
       <c r="B26" t="n">
-        <v>237.26098739321725</v>
+        <v>238.2964546421618</v>
       </c>
     </row>
     <row r="27">
@@ -280,7 +280,7 @@
         <v>43466.0</v>
       </c>
       <c r="B27" t="n">
-        <v>236.9071276274876</v>
+        <v>237.26110839778246</v>
       </c>
     </row>
     <row r="28">
@@ -288,7 +288,7 @@
         <v>43497.0</v>
       </c>
       <c r="B28" t="n">
-        <v>237.49111434941062</v>
+        <v>237.41263407603296</v>
       </c>
     </row>
     <row r="29">
@@ -296,7 +296,7 @@
         <v>43525.0</v>
       </c>
       <c r="B29" t="n">
-        <v>238.24253003937994</v>
+        <v>238.06761055776062</v>
       </c>
     </row>
     <row r="30">
@@ -304,7 +304,7 @@
         <v>43556.0</v>
       </c>
       <c r="B30" t="n">
-        <v>237.63869489331944</v>
+        <v>236.9669458987124</v>
       </c>
     </row>
     <row r="31">
@@ -312,7 +312,7 @@
         <v>43586.0</v>
       </c>
       <c r="B31" t="n">
-        <v>237.21951222405704</v>
+        <v>236.2039922950235</v>
       </c>
     </row>
     <row r="32">
@@ -320,7 +320,7 @@
         <v>43617.0</v>
       </c>
       <c r="B32" t="n">
-        <v>237.06538066642773</v>
+        <v>235.941116118408</v>
       </c>
     </row>
     <row r="33">
@@ -328,7 +328,7 @@
         <v>43647.0</v>
       </c>
       <c r="B33" t="n">
-        <v>238.15112333039644</v>
+        <v>237.01500063914887</v>
       </c>
     </row>
     <row r="34">
@@ -336,7 +336,7 @@
         <v>43678.0</v>
       </c>
       <c r="B34" t="n">
-        <v>240.26519768627318</v>
+        <v>239.5916914082927</v>
       </c>
     </row>
     <row r="35">
@@ -344,7 +344,7 @@
         <v>43709.0</v>
       </c>
       <c r="B35" t="n">
-        <v>241.64577808445117</v>
+        <v>241.48876565977892</v>
       </c>
     </row>
     <row r="36">
@@ -352,7 +352,7 @@
         <v>43739.0</v>
       </c>
       <c r="B36" t="n">
-        <v>244.78532501564433</v>
+        <v>245.26459105219288</v>
       </c>
     </row>
     <row r="37">
@@ -360,7 +360,7 @@
         <v>43770.0</v>
       </c>
       <c r="B37" t="n">
-        <v>246.4725628149639</v>
+        <v>247.4056938944514</v>
       </c>
     </row>
     <row r="38">
@@ -368,7 +368,7 @@
         <v>43800.0</v>
       </c>
       <c r="B38" t="n">
-        <v>249.25887301097993</v>
+        <v>250.51824283619763</v>
       </c>
     </row>
     <row r="39">
@@ -376,7 +376,7 @@
         <v>43831.0</v>
       </c>
       <c r="B39" t="n">
-        <v>249.69693221615245</v>
+        <v>250.4195474785786</v>
       </c>
     </row>
     <row r="40">
@@ -384,7 +384,7 @@
         <v>43862.0</v>
       </c>
       <c r="B40" t="n">
-        <v>248.7729421530687</v>
+        <v>248.88692097519566</v>
       </c>
     </row>
     <row r="41">
@@ -392,7 +392,7 @@
         <v>43891.0</v>
       </c>
       <c r="B41" t="n">
-        <v>250.00824532194736</v>
+        <v>250.07501412055393</v>
       </c>
     </row>
     <row r="42">
@@ -400,7 +400,7 @@
         <v>43922.0</v>
       </c>
       <c r="B42" t="n">
-        <v>248.6121735513424</v>
+        <v>247.96178879071766</v>
       </c>
     </row>
     <row r="43">
@@ -408,7 +408,7 @@
         <v>43952.0</v>
       </c>
       <c r="B43" t="n">
-        <v>252.01315933849105</v>
+        <v>251.9683561118369</v>
       </c>
     </row>
     <row r="44">
@@ -416,7 +416,7 @@
         <v>43983.0</v>
       </c>
       <c r="B44" t="n">
-        <v>255.62755060317448</v>
+        <v>256.53203430127866</v>
       </c>
     </row>
     <row r="45">
@@ -424,7 +424,7 @@
         <v>44013.0</v>
       </c>
       <c r="B45" t="n">
-        <v>255.83283313989642</v>
+        <v>256.28869458297595</v>
       </c>
     </row>
     <row r="46">
@@ -432,7 +432,7 @@
         <v>44044.0</v>
       </c>
       <c r="B46" t="n">
-        <v>257.0859020966095</v>
+        <v>257.4333659882908</v>
       </c>
     </row>
     <row r="47">
@@ -440,7 +440,7 @@
         <v>44075.0</v>
       </c>
       <c r="B47" t="n">
-        <v>257.5159620273279</v>
+        <v>257.46635946741344</v>
       </c>
     </row>
     <row r="48">
@@ -448,7 +448,7 @@
         <v>44105.0</v>
       </c>
       <c r="B48" t="n">
-        <v>256.21840810105454</v>
+        <v>255.2685968908577</v>
       </c>
     </row>
     <row r="49">
@@ -456,7 +456,7 @@
         <v>44136.0</v>
       </c>
       <c r="B49" t="n">
-        <v>257.6535970242736</v>
+        <v>256.9478132936962</v>
       </c>
     </row>
     <row r="50">
@@ -464,7 +464,7 @@
         <v>44166.0</v>
       </c>
       <c r="B50" t="n">
-        <v>257.3689958157773</v>
+        <v>256.514807695908</v>
       </c>
     </row>
     <row r="51">
@@ -472,7 +472,7 @@
         <v>44197.0</v>
       </c>
       <c r="B51" t="n">
-        <v>258.5960014530676</v>
+        <v>257.94351421428405</v>
       </c>
     </row>
     <row r="52">
@@ -480,7 +480,7 @@
         <v>44228.0</v>
       </c>
       <c r="B52" t="n">
-        <v>262.3142173831906</v>
+        <v>262.3820647840201</v>
       </c>
     </row>
     <row r="53">
@@ -488,7 +488,7 @@
         <v>44256.0</v>
       </c>
       <c r="B53" t="n">
-        <v>265.00052856468955</v>
+        <v>265.69554798863413</v>
       </c>
     </row>
     <row r="54">
@@ -496,7 +496,7 @@
         <v>44287.0</v>
       </c>
       <c r="B54" t="n">
-        <v>269.6281988983718</v>
+        <v>271.18647934554883</v>
       </c>
     </row>
     <row r="55">
@@ -504,7 +504,7 @@
         <v>44317.0</v>
       </c>
       <c r="B55" t="n">
-        <v>262.21847898498277</v>
+        <v>263.4825047089728</v>
       </c>
     </row>
     <row r="56">
@@ -512,7 +512,7 @@
         <v>44348.0</v>
       </c>
       <c r="B56" t="n">
-        <v>272.5459380818691</v>
+        <v>273.65898480250553</v>
       </c>
     </row>
     <row r="57">
@@ -520,7 +520,7 @@
         <v>44378.0</v>
       </c>
       <c r="B57" t="n">
-        <v>274.2599883431117</v>
+        <v>274.96266990991336</v>
       </c>
     </row>
     <row r="58">
@@ -528,7 +528,7 @@
         <v>44409.0</v>
       </c>
       <c r="B58" t="n">
-        <v>274.25054627890313</v>
+        <v>274.0243609798994</v>
       </c>
     </row>
     <row r="59">
@@ -536,7 +536,7 @@
         <v>44440.0</v>
       </c>
       <c r="B59" t="n">
-        <v>276.6328843413635</v>
+        <v>275.5873204827992</v>
       </c>
     </row>
     <row r="60">
@@ -544,7 +544,7 @@
         <v>44470.0</v>
       </c>
       <c r="B60" t="n">
-        <v>279.23662367686165</v>
+        <v>277.05152753770864</v>
       </c>
     </row>
     <row r="61">
@@ -552,7 +552,7 @@
         <v>44501.0</v>
       </c>
       <c r="B61" t="n">
-        <v>284.8401647326849</v>
+        <v>282.8348755305517</v>
       </c>
     </row>
     <row r="62">
@@ -560,7 +560,7 @@
         <v>44531.0</v>
       </c>
       <c r="B62" t="n">
-        <v>313.1249757514501</v>
+        <v>311.67781799454076</v>
       </c>
     </row>
     <row r="63">
@@ -568,7 +568,7 @@
         <v>44562.0</v>
       </c>
       <c r="B63" t="n">
-        <v>321.4950972569487</v>
+        <v>321.5054916492031</v>
       </c>
     </row>
     <row r="64">
@@ -576,7 +576,7 @@
         <v>44593.0</v>
       </c>
       <c r="B64" t="n">
-        <v>328.61528502686355</v>
+        <v>329.222600167181</v>
       </c>
     </row>
     <row r="65">
@@ -584,7 +584,7 @@
         <v>44621.0</v>
       </c>
       <c r="B65" t="n">
-        <v>335.645049165038</v>
+        <v>336.28446855748274</v>
       </c>
     </row>
     <row r="66">
@@ -592,7 +592,7 @@
         <v>44652.0</v>
       </c>
       <c r="B66" t="n">
-        <v>343.2940192290462</v>
+        <v>344.58710702142764</v>
       </c>
     </row>
     <row r="67">
@@ -600,7 +600,7 @@
         <v>44682.0</v>
       </c>
       <c r="B67" t="n">
-        <v>344.87954458385093</v>
+        <v>345.11553756771474</v>
       </c>
     </row>
     <row r="68">
@@ -608,7 +608,7 @@
         <v>44713.0</v>
       </c>
       <c r="B68" t="n">
-        <v>350.9665033125281</v>
+        <v>350.92063853881507</v>
       </c>
     </row>
     <row r="69">
@@ -616,7 +616,7 @@
         <v>44743.0</v>
       </c>
       <c r="B69" t="n">
-        <v>359.11534272769325</v>
+        <v>360.527998676655</v>
       </c>
     </row>
     <row r="70">
@@ -624,7 +624,7 @@
         <v>44774.0</v>
       </c>
       <c r="B70" t="n">
-        <v>367.74990930654445</v>
+        <v>370.22943806663443</v>
       </c>
     </row>
     <row r="71">
@@ -632,7 +632,7 @@
         <v>44805.0</v>
       </c>
       <c r="B71" t="n">
-        <v>374.2131401606825</v>
+        <v>376.51115316619</v>
       </c>
     </row>
     <row r="72">
@@ -640,7 +640,7 @@
         <v>44835.0</v>
       </c>
       <c r="B72" t="n">
-        <v>377.55642014818255</v>
+        <v>378.5435166047928</v>
       </c>
     </row>
     <row r="73">
@@ -648,7 +648,7 @@
         <v>44866.0</v>
       </c>
       <c r="B73" t="n">
-        <v>380.9907945097705</v>
+        <v>380.81911436581925</v>
       </c>
     </row>
     <row r="74">
@@ -656,7 +656,7 @@
         <v>44896.0</v>
       </c>
       <c r="B74" t="n">
-        <v>386.9559631381735</v>
+        <v>386.7954880037719</v>
       </c>
     </row>
     <row r="75">
@@ -664,7 +664,7 @@
         <v>44927.0</v>
       </c>
       <c r="B75" t="n">
-        <v>393.814027427063</v>
+        <v>394.67983677673016</v>
       </c>
     </row>
     <row r="76">
@@ -672,7 +672,7 @@
         <v>44958.0</v>
       </c>
       <c r="B76" t="n">
-        <v>397.750426592567</v>
+        <v>397.2648998664751</v>
       </c>
     </row>
     <row r="77">
@@ -680,7 +680,7 @@
         <v>44986.0</v>
       </c>
       <c r="B77" t="n">
-        <v>398.8014509247994</v>
+        <v>395.489708119252</v>
       </c>
     </row>
     <row r="78">
@@ -688,7 +688,7 @@
         <v>45017.0</v>
       </c>
       <c r="B78" t="n">
-        <v>403.8790891880212</v>
+        <v>399.8980607305766</v>
       </c>
     </row>
     <row r="79">
@@ -696,7 +696,7 @@
         <v>45047.0</v>
       </c>
       <c r="B79" t="n">
-        <v>417.55619847233703</v>
+        <v>415.71730325642176</v>
       </c>
     </row>
     <row r="80">
@@ -704,7 +704,7 @@
         <v>45078.0</v>
       </c>
       <c r="B80" t="n">
-        <v>428.8774998383209</v>
+        <v>427.0861247601915</v>
       </c>
     </row>
     <row r="81">
@@ -712,7 +712,7 @@
         <v>45108.0</v>
       </c>
       <c r="B81" t="n">
-        <v>444.68288232108995</v>
+        <v>444.3458568111901</v>
       </c>
     </row>
     <row r="82">
@@ -720,7 +720,7 @@
         <v>45139.0</v>
       </c>
       <c r="B82" t="n">
-        <v>485.0864282189865</v>
+        <v>486.5573454109241</v>
       </c>
     </row>
     <row r="83">
@@ -728,7 +728,7 @@
         <v>45170.0</v>
       </c>
       <c r="B83" t="n">
-        <v>496.0735345103413</v>
+        <v>497.38080125362904</v>
       </c>
     </row>
     <row r="84">
@@ -736,7 +736,7 @@
         <v>45200.0</v>
       </c>
       <c r="B84" t="n">
-        <v>511.88550067862616</v>
+        <v>514.4414979636466</v>
       </c>
     </row>
     <row r="85">
@@ -744,7 +744,7 @@
         <v>45231.0</v>
       </c>
       <c r="B85" t="n">
-        <v>524.2302404425387</v>
+        <v>525.8939285776953</v>
       </c>
     </row>
     <row r="86">
@@ -752,7 +752,7 @@
         <v>45261.0</v>
       </c>
       <c r="B86" t="n">
-        <v>534.8864593373871</v>
+        <v>536.0089568030027</v>
       </c>
     </row>
     <row r="87">
@@ -760,7 +760,7 @@
         <v>45292.0</v>
       </c>
       <c r="B87" t="n">
-        <v>551.3476303886761</v>
+        <v>552.8680287093405</v>
       </c>
     </row>
     <row r="88">
@@ -768,7 +768,7 @@
         <v>45323.0</v>
       </c>
       <c r="B88" t="n">
-        <v>560.1749570952543</v>
+        <v>560.9677708071777</v>
       </c>
     </row>
     <row r="89">
@@ -776,7 +776,7 @@
         <v>45352.0</v>
       </c>
       <c r="B89" t="n">
-        <v>573.6430915540857</v>
+        <v>573.94708271152</v>
       </c>
     </row>
     <row r="90">
@@ -784,7 +784,7 @@
         <v>45383.0</v>
       </c>
       <c r="B90" t="n">
-        <v>589.7264050976812</v>
+        <v>590.3235588883347</v>
       </c>
     </row>
     <row r="91">
@@ -792,7 +792,7 @@
         <v>45413.0</v>
       </c>
       <c r="B91" t="n">
-        <v>613.9136337222052</v>
+        <v>618.5650608657578</v>
       </c>
     </row>
     <row r="92">
@@ -800,7 +800,7 @@
         <v>45444.0</v>
       </c>
       <c r="B92" t="n">
-        <v>628.8427705217578</v>
+        <v>627.168847805995</v>
       </c>
     </row>
     <row r="93">
@@ -808,7 +808,7 @@
         <v>45474.0</v>
       </c>
       <c r="B93" t="n">
-        <v>634.4346258544847</v>
+        <v>627.6279307778467</v>
       </c>
     </row>
     <row r="94">
@@ -816,7 +816,7 @@
         <v>45505.0</v>
       </c>
       <c r="B94" t="n">
-        <v>645.8111804984054</v>
+        <v>639.4306656712783</v>
       </c>
     </row>
     <row r="95">
@@ -824,7 +824,7 @@
         <v>45536.0</v>
       </c>
       <c r="B95" t="n">
-        <v>660.1454141589721</v>
+        <v>655.7271599308125</v>
       </c>
     </row>
     <row r="96">
@@ -832,7 +832,7 @@
         <v>45566.0</v>
       </c>
       <c r="B96" t="n">
-        <v>675.0854280190225</v>
+        <v>673.8278247410053</v>
       </c>
     </row>
     <row r="97">
@@ -840,7 +840,7 @@
         <v>45597.0</v>
       </c>
       <c r="B97" t="n">
-        <v>687.390397135679</v>
+        <v>687.6932587395717</v>
       </c>
     </row>
     <row r="98">
@@ -848,7 +848,7 @@
         <v>45627.0</v>
       </c>
       <c r="B98" t="n">
-        <v>702.1791266154275</v>
+        <v>704.4280707938321</v>
       </c>
     </row>
     <row r="99">
@@ -856,7 +856,7 @@
         <v>45658.0</v>
       </c>
       <c r="B99" t="n">
-        <v>707.8114030007371</v>
+        <v>709.4317249479983</v>
       </c>
     </row>
     <row r="100">
@@ -864,7 +864,7 @@
         <v>45689.0</v>
       </c>
       <c r="B100" t="n">
-        <v>728.2734650579977</v>
+        <v>735.6462357734048</v>
       </c>
     </row>
     <row r="101">
@@ -872,7 +872,7 @@
         <v>45717.0</v>
       </c>
       <c r="B101" t="n">
-        <v>747.0196945542942</v>
+        <v>761.6589731753576</v>
       </c>
     </row>
     <row r="102">
@@ -880,7 +880,7 @@
         <v>45748.0</v>
       </c>
       <c r="B102" t="n">
-        <v>754.1769148302227</v>
+        <v>769.2846967406792</v>
       </c>
     </row>
     <row r="103">
@@ -888,7 +888,15 @@
         <v>45778.0</v>
       </c>
       <c r="B103" t="n">
-        <v>750.7191550798299</v>
+        <v>761.833368398844</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>45809.0</v>
+      </c>
+      <c r="B104" t="n">
+        <v>779.6140683856953</v>
       </c>
     </row>
   </sheetData>

--- a/giyimma.xlsx
+++ b/giyimma.xlsx
@@ -80,7 +80,7 @@
         <v>42705.0</v>
       </c>
       <c r="B2" t="n">
-        <v>188.48560628669912</v>
+        <v>188.4844985767976</v>
       </c>
     </row>
     <row r="3">
@@ -88,7 +88,7 @@
         <v>42736.0</v>
       </c>
       <c r="B3" t="n">
-        <v>189.76339071519703</v>
+        <v>189.7613883437247</v>
       </c>
     </row>
     <row r="4">
@@ -96,7 +96,7 @@
         <v>42767.0</v>
       </c>
       <c r="B4" t="n">
-        <v>192.03798156488347</v>
+        <v>192.03720424110358</v>
       </c>
     </row>
     <row r="5">
@@ -104,7 +104,7 @@
         <v>42795.0</v>
       </c>
       <c r="B5" t="n">
-        <v>194.4302500768847</v>
+        <v>194.4309551590159</v>
       </c>
     </row>
     <row r="6">
@@ -112,7 +112,7 @@
         <v>42826.0</v>
       </c>
       <c r="B6" t="n">
-        <v>196.18929480917186</v>
+        <v>196.19301597549673</v>
       </c>
     </row>
     <row r="7">
@@ -120,7 +120,7 @@
         <v>42856.0</v>
       </c>
       <c r="B7" t="n">
-        <v>198.52858510515645</v>
+        <v>198.53325604681595</v>
       </c>
     </row>
     <row r="8">
@@ -128,7 +128,7 @@
         <v>42887.0</v>
       </c>
       <c r="B8" t="n">
-        <v>200.17107172297582</v>
+        <v>200.17506516190147</v>
       </c>
     </row>
     <row r="9">
@@ -136,7 +136,7 @@
         <v>42917.0</v>
       </c>
       <c r="B9" t="n">
-        <v>201.67862379525116</v>
+        <v>201.68142820430245</v>
       </c>
     </row>
     <row r="10">
@@ -144,7 +144,7 @@
         <v>42948.0</v>
       </c>
       <c r="B10" t="n">
-        <v>202.43375192966832</v>
+        <v>202.433530663755</v>
       </c>
     </row>
     <row r="11">
@@ -152,7 +152,7 @@
         <v>42979.0</v>
       </c>
       <c r="B11" t="n">
-        <v>202.60277139910158</v>
+        <v>202.59971575263677</v>
       </c>
     </row>
     <row r="12">
@@ -160,7 +160,7 @@
         <v>43009.0</v>
       </c>
       <c r="B12" t="n">
-        <v>204.04315551647372</v>
+        <v>204.04051712025154</v>
       </c>
     </row>
     <row r="13">
@@ -168,7 +168,7 @@
         <v>43040.0</v>
       </c>
       <c r="B13" t="n">
-        <v>206.7992137078651</v>
+        <v>206.7986632113944</v>
       </c>
     </row>
     <row r="14">
@@ -176,7 +176,7 @@
         <v>43070.0</v>
       </c>
       <c r="B14" t="n">
-        <v>209.6025504545387</v>
+        <v>209.60206164576527</v>
       </c>
     </row>
     <row r="15">
@@ -184,7 +184,7 @@
         <v>43101.0</v>
       </c>
       <c r="B15" t="n">
-        <v>212.83146077816656</v>
+        <v>212.8308933417945</v>
       </c>
     </row>
     <row r="16">
@@ -192,7 +192,7 @@
         <v>43132.0</v>
       </c>
       <c r="B16" t="n">
-        <v>214.64224524600039</v>
+        <v>214.63946431456884</v>
       </c>
     </row>
     <row r="17">
@@ -200,7 +200,7 @@
         <v>43160.0</v>
       </c>
       <c r="B17" t="n">
-        <v>216.17487544128343</v>
+        <v>216.17132322020277</v>
       </c>
     </row>
     <row r="18">
@@ -208,7 +208,7 @@
         <v>43191.0</v>
       </c>
       <c r="B18" t="n">
-        <v>221.630384656199</v>
+        <v>221.63185619924897</v>
       </c>
     </row>
     <row r="19">
@@ -216,7 +216,7 @@
         <v>43221.0</v>
       </c>
       <c r="B19" t="n">
-        <v>223.22257293529464</v>
+        <v>223.22277629692127</v>
       </c>
     </row>
     <row r="20">
@@ -224,7 +224,7 @@
         <v>43252.0</v>
       </c>
       <c r="B20" t="n">
-        <v>225.13862943614393</v>
+        <v>225.13684006982274</v>
       </c>
     </row>
     <row r="21">
@@ -232,7 +232,7 @@
         <v>43282.0</v>
       </c>
       <c r="B21" t="n">
-        <v>227.25902766817154</v>
+        <v>227.25659858254812</v>
       </c>
     </row>
     <row r="22">
@@ -240,7 +240,7 @@
         <v>43313.0</v>
       </c>
       <c r="B22" t="n">
-        <v>229.68211865815206</v>
+        <v>229.68073062034813</v>
       </c>
     </row>
     <row r="23">
@@ -248,7 +248,7 @@
         <v>43344.0</v>
       </c>
       <c r="B23" t="n">
-        <v>234.5693563528907</v>
+        <v>234.5739587514077</v>
       </c>
     </row>
     <row r="24">
@@ -256,7 +256,7 @@
         <v>43374.0</v>
       </c>
       <c r="B24" t="n">
-        <v>238.07289218855314</v>
+        <v>238.08349305555626</v>
       </c>
     </row>
     <row r="25">
@@ -264,7 +264,7 @@
         <v>43405.0</v>
       </c>
       <c r="B25" t="n">
-        <v>238.95311845053953</v>
+        <v>238.96429460777426</v>
       </c>
     </row>
     <row r="26">
@@ -272,7 +272,7 @@
         <v>43435.0</v>
       </c>
       <c r="B26" t="n">
-        <v>238.2964546421618</v>
+        <v>238.3048202872872</v>
       </c>
     </row>
     <row r="27">
@@ -280,7 +280,7 @@
         <v>43466.0</v>
       </c>
       <c r="B27" t="n">
-        <v>237.26110839778246</v>
+        <v>237.26407833536052</v>
       </c>
     </row>
     <row r="28">
@@ -288,7 +288,7 @@
         <v>43497.0</v>
       </c>
       <c r="B28" t="n">
-        <v>237.41263407603296</v>
+        <v>237.4118139565123</v>
       </c>
     </row>
     <row r="29">
@@ -296,7 +296,7 @@
         <v>43525.0</v>
       </c>
       <c r="B29" t="n">
-        <v>238.06761055776062</v>
+        <v>238.0660929724701</v>
       </c>
     </row>
     <row r="30">
@@ -304,7 +304,7 @@
         <v>43556.0</v>
       </c>
       <c r="B30" t="n">
-        <v>236.9669458987124</v>
+        <v>236.9621177058463</v>
       </c>
     </row>
     <row r="31">
@@ -312,7 +312,7 @@
         <v>43586.0</v>
       </c>
       <c r="B31" t="n">
-        <v>236.2039922950235</v>
+        <v>236.19701581678382</v>
       </c>
     </row>
     <row r="32">
@@ -320,7 +320,7 @@
         <v>43617.0</v>
       </c>
       <c r="B32" t="n">
-        <v>235.941116118408</v>
+        <v>235.933719533388</v>
       </c>
     </row>
     <row r="33">
@@ -328,7 +328,7 @@
         <v>43647.0</v>
       </c>
       <c r="B33" t="n">
-        <v>237.01500063914887</v>
+        <v>237.00701246371133</v>
       </c>
     </row>
     <row r="34">
@@ -336,7 +336,7 @@
         <v>43678.0</v>
       </c>
       <c r="B34" t="n">
-        <v>239.5916914082927</v>
+        <v>239.5869066431784</v>
       </c>
     </row>
     <row r="35">
@@ -344,7 +344,7 @@
         <v>43709.0</v>
       </c>
       <c r="B35" t="n">
-        <v>241.48876565977892</v>
+        <v>241.48795160848206</v>
       </c>
     </row>
     <row r="36">
@@ -352,7 +352,7 @@
         <v>43739.0</v>
       </c>
       <c r="B36" t="n">
-        <v>245.26459105219288</v>
+        <v>245.26813130972</v>
       </c>
     </row>
     <row r="37">
@@ -360,7 +360,7 @@
         <v>43770.0</v>
       </c>
       <c r="B37" t="n">
-        <v>247.4056938944514</v>
+        <v>247.41290626568755</v>
       </c>
     </row>
     <row r="38">
@@ -368,7 +368,7 @@
         <v>43800.0</v>
       </c>
       <c r="B38" t="n">
-        <v>250.51824283619763</v>
+        <v>250.52761798607781</v>
       </c>
     </row>
     <row r="39">
@@ -376,7 +376,7 @@
         <v>43831.0</v>
       </c>
       <c r="B39" t="n">
-        <v>250.4195474785786</v>
+        <v>250.42474487568904</v>
       </c>
     </row>
     <row r="40">
@@ -384,7 +384,7 @@
         <v>43862.0</v>
       </c>
       <c r="B40" t="n">
-        <v>248.88692097519566</v>
+        <v>248.8877967087526</v>
       </c>
     </row>
     <row r="41">
@@ -392,7 +392,7 @@
         <v>43891.0</v>
       </c>
       <c r="B41" t="n">
-        <v>250.07501412055393</v>
+        <v>250.0758824396301</v>
       </c>
     </row>
     <row r="42">
@@ -400,7 +400,7 @@
         <v>43922.0</v>
       </c>
       <c r="B42" t="n">
-        <v>247.96178879071766</v>
+        <v>247.9578232268494</v>
       </c>
     </row>
     <row r="43">
@@ -408,7 +408,7 @@
         <v>43952.0</v>
       </c>
       <c r="B43" t="n">
-        <v>251.9683561118369</v>
+        <v>251.96850831615484</v>
       </c>
     </row>
     <row r="44">
@@ -416,7 +416,7 @@
         <v>43983.0</v>
       </c>
       <c r="B44" t="n">
-        <v>256.53203430127866</v>
+        <v>256.53846595307164</v>
       </c>
     </row>
     <row r="45">
@@ -424,7 +424,7 @@
         <v>44013.0</v>
       </c>
       <c r="B45" t="n">
-        <v>256.28869458297595</v>
+        <v>256.2916164137761</v>
       </c>
     </row>
     <row r="46">
@@ -432,7 +432,7 @@
         <v>44044.0</v>
       </c>
       <c r="B46" t="n">
-        <v>257.4333659882908</v>
+        <v>257.4353537432758</v>
       </c>
     </row>
     <row r="47">
@@ -440,7 +440,7 @@
         <v>44075.0</v>
       </c>
       <c r="B47" t="n">
-        <v>257.46635946741344</v>
+        <v>257.4653429857239</v>
       </c>
     </row>
     <row r="48">
@@ -448,7 +448,7 @@
         <v>44105.0</v>
       </c>
       <c r="B48" t="n">
-        <v>255.2685968908577</v>
+        <v>255.2605528219192</v>
       </c>
     </row>
     <row r="49">
@@ -456,7 +456,7 @@
         <v>44136.0</v>
       </c>
       <c r="B49" t="n">
-        <v>256.9478132936962</v>
+        <v>256.9419784395319</v>
       </c>
     </row>
     <row r="50">
@@ -464,7 +464,7 @@
         <v>44166.0</v>
       </c>
       <c r="B50" t="n">
-        <v>256.514807695908</v>
+        <v>256.5090758739011</v>
       </c>
     </row>
     <row r="51">
@@ -472,7 +472,7 @@
         <v>44197.0</v>
       </c>
       <c r="B51" t="n">
-        <v>257.94351421428405</v>
+        <v>257.93981937845035</v>
       </c>
     </row>
     <row r="52">
@@ -480,7 +480,7 @@
         <v>44228.0</v>
       </c>
       <c r="B52" t="n">
-        <v>262.3820647840201</v>
+        <v>262.38323446188866</v>
       </c>
     </row>
     <row r="53">
@@ -488,7 +488,7 @@
         <v>44256.0</v>
       </c>
       <c r="B53" t="n">
-        <v>265.69554798863413</v>
+        <v>265.7008189440121</v>
       </c>
     </row>
     <row r="54">
@@ -496,7 +496,7 @@
         <v>44287.0</v>
       </c>
       <c r="B54" t="n">
-        <v>271.18647934554883</v>
+        <v>271.1977876765712</v>
       </c>
     </row>
     <row r="55">
@@ -504,7 +504,7 @@
         <v>44317.0</v>
       </c>
       <c r="B55" t="n">
-        <v>263.4825047089728</v>
+        <v>263.4924097472955</v>
       </c>
     </row>
     <row r="56">
@@ -512,7 +512,7 @@
         <v>44348.0</v>
       </c>
       <c r="B56" t="n">
-        <v>273.65898480250553</v>
+        <v>273.6672954282304</v>
       </c>
     </row>
     <row r="57">
@@ -520,7 +520,7 @@
         <v>44378.0</v>
       </c>
       <c r="B57" t="n">
-        <v>274.96266990991336</v>
+        <v>274.9684184913014</v>
       </c>
     </row>
     <row r="58">
@@ -528,7 +528,7 @@
         <v>44409.0</v>
       </c>
       <c r="B58" t="n">
-        <v>274.0243609798994</v>
+        <v>274.0241651843794</v>
       </c>
     </row>
     <row r="59">
@@ -536,7 +536,7 @@
         <v>44440.0</v>
       </c>
       <c r="B59" t="n">
-        <v>275.5873204827992</v>
+        <v>275.5806551031792</v>
       </c>
     </row>
     <row r="60">
@@ -544,7 +544,7 @@
         <v>44470.0</v>
       </c>
       <c r="B60" t="n">
-        <v>277.05152753770864</v>
+        <v>277.0350217291303</v>
       </c>
     </row>
     <row r="61">
@@ -552,7 +552,7 @@
         <v>44501.0</v>
       </c>
       <c r="B61" t="n">
-        <v>282.8348755305517</v>
+        <v>282.81917925833363</v>
       </c>
     </row>
     <row r="62">
@@ -560,7 +560,7 @@
         <v>44531.0</v>
       </c>
       <c r="B62" t="n">
-        <v>311.67781799454076</v>
+        <v>311.6672587183977</v>
       </c>
     </row>
     <row r="63">
@@ -568,7 +568,7 @@
         <v>44562.0</v>
       </c>
       <c r="B63" t="n">
-        <v>321.5054916492031</v>
+        <v>321.50663648452775</v>
       </c>
     </row>
     <row r="64">
@@ -576,7 +576,7 @@
         <v>44593.0</v>
       </c>
       <c r="B64" t="n">
-        <v>329.222600167181</v>
+        <v>329.22766569327996</v>
       </c>
     </row>
     <row r="65">
@@ -584,7 +584,7 @@
         <v>44621.0</v>
       </c>
       <c r="B65" t="n">
-        <v>336.28446855748274</v>
+        <v>336.28835713935</v>
       </c>
     </row>
     <row r="66">
@@ -592,7 +592,7 @@
         <v>44652.0</v>
       </c>
       <c r="B66" t="n">
-        <v>344.58710702142764</v>
+        <v>344.59607479664015</v>
       </c>
     </row>
     <row r="67">
@@ -600,7 +600,7 @@
         <v>44682.0</v>
       </c>
       <c r="B67" t="n">
-        <v>345.11553756771474</v>
+        <v>345.11907667520984</v>
       </c>
     </row>
     <row r="68">
@@ -608,7 +608,7 @@
         <v>44713.0</v>
       </c>
       <c r="B68" t="n">
-        <v>350.92063853881507</v>
+        <v>350.91958379656216</v>
       </c>
     </row>
     <row r="69">
@@ -616,7 +616,7 @@
         <v>44743.0</v>
       </c>
       <c r="B69" t="n">
-        <v>360.527998676655</v>
+        <v>360.5373540761479</v>
       </c>
     </row>
     <row r="70">
@@ -624,7 +624,7 @@
         <v>44774.0</v>
       </c>
       <c r="B70" t="n">
-        <v>370.22943806663443</v>
+        <v>370.2469129962472</v>
       </c>
     </row>
     <row r="71">
@@ -632,7 +632,7 @@
         <v>44805.0</v>
       </c>
       <c r="B71" t="n">
-        <v>376.51115316619</v>
+        <v>376.526485632323</v>
       </c>
     </row>
     <row r="72">
@@ -640,7 +640,7 @@
         <v>44835.0</v>
       </c>
       <c r="B72" t="n">
-        <v>378.5435166047928</v>
+        <v>378.5488618694114</v>
       </c>
     </row>
     <row r="73">
@@ -648,7 +648,7 @@
         <v>44866.0</v>
       </c>
       <c r="B73" t="n">
-        <v>380.81911436581925</v>
+        <v>380.8159252518893</v>
       </c>
     </row>
     <row r="74">
@@ -656,7 +656,7 @@
         <v>44896.0</v>
       </c>
       <c r="B74" t="n">
-        <v>386.7954880037719</v>
+        <v>386.7939685297341</v>
       </c>
     </row>
     <row r="75">
@@ -664,7 +664,7 @@
         <v>44927.0</v>
       </c>
       <c r="B75" t="n">
-        <v>394.67983677673016</v>
+        <v>394.6880404170899</v>
       </c>
     </row>
     <row r="76">
@@ -672,7 +672,7 @@
         <v>44958.0</v>
       </c>
       <c r="B76" t="n">
-        <v>397.2648998664751</v>
+        <v>397.2642798843316</v>
       </c>
     </row>
     <row r="77">
@@ -680,7 +680,7 @@
         <v>44986.0</v>
       </c>
       <c r="B77" t="n">
-        <v>395.489708119252</v>
+        <v>395.4690145156924</v>
       </c>
     </row>
     <row r="78">
@@ -688,7 +688,7 @@
         <v>45017.0</v>
       </c>
       <c r="B78" t="n">
-        <v>399.8980607305766</v>
+        <v>399.87390661628484</v>
       </c>
     </row>
     <row r="79">
@@ -696,7 +696,7 @@
         <v>45047.0</v>
       </c>
       <c r="B79" t="n">
-        <v>415.71730325642176</v>
+        <v>415.7104790911865</v>
       </c>
     </row>
     <row r="80">
@@ -704,7 +704,7 @@
         <v>45078.0</v>
       </c>
       <c r="B80" t="n">
-        <v>427.0861247601915</v>
+        <v>427.06958116402444</v>
       </c>
     </row>
     <row r="81">
@@ -712,7 +712,7 @@
         <v>45108.0</v>
       </c>
       <c r="B81" t="n">
-        <v>444.3458568111901</v>
+        <v>444.33702774989104</v>
       </c>
     </row>
     <row r="82">
@@ -720,7 +720,7 @@
         <v>45139.0</v>
       </c>
       <c r="B82" t="n">
-        <v>486.5573454109241</v>
+        <v>486.5629451590659</v>
       </c>
     </row>
     <row r="83">
@@ -728,7 +728,7 @@
         <v>45170.0</v>
       </c>
       <c r="B83" t="n">
-        <v>497.38080125362904</v>
+        <v>497.38716112230674</v>
       </c>
     </row>
     <row r="84">
@@ -736,7 +736,7 @@
         <v>45200.0</v>
       </c>
       <c r="B84" t="n">
-        <v>514.4414979636466</v>
+        <v>514.4587823995853</v>
       </c>
     </row>
     <row r="85">
@@ -744,7 +744,7 @@
         <v>45231.0</v>
       </c>
       <c r="B85" t="n">
-        <v>525.8939285776953</v>
+        <v>525.9053444871226</v>
       </c>
     </row>
     <row r="86">
@@ -752,7 +752,7 @@
         <v>45261.0</v>
       </c>
       <c r="B86" t="n">
-        <v>536.0089568030027</v>
+        <v>536.0194649404481</v>
       </c>
     </row>
     <row r="87">
@@ -760,7 +760,7 @@
         <v>45292.0</v>
       </c>
       <c r="B87" t="n">
-        <v>552.8680287093405</v>
+        <v>552.8839770083198</v>
       </c>
     </row>
     <row r="88">
@@ -768,7 +768,7 @@
         <v>45323.0</v>
       </c>
       <c r="B88" t="n">
-        <v>560.9677708071777</v>
+        <v>560.9813969207821</v>
       </c>
     </row>
     <row r="89">
@@ -776,7 +776,7 @@
         <v>45352.0</v>
       </c>
       <c r="B89" t="n">
-        <v>573.94708271152</v>
+        <v>573.9592219771748</v>
       </c>
     </row>
     <row r="90">
@@ -784,7 +784,7 @@
         <v>45383.0</v>
       </c>
       <c r="B90" t="n">
-        <v>590.3235588883347</v>
+        <v>590.3392802235467</v>
       </c>
     </row>
     <row r="91">
@@ -792,7 +792,7 @@
         <v>45413.0</v>
       </c>
       <c r="B91" t="n">
-        <v>618.5650608657578</v>
+        <v>618.6134368274899</v>
       </c>
     </row>
     <row r="92">
@@ -800,7 +800,7 @@
         <v>45444.0</v>
       </c>
       <c r="B92" t="n">
-        <v>627.168847805995</v>
+        <v>627.1381992010273</v>
       </c>
     </row>
     <row r="93">
@@ -808,7 +808,7 @@
         <v>45474.0</v>
       </c>
       <c r="B93" t="n">
-        <v>627.6279307778467</v>
+        <v>627.5560088755154</v>
       </c>
     </row>
     <row r="94">
@@ -816,7 +816,7 @@
         <v>45505.0</v>
       </c>
       <c r="B94" t="n">
-        <v>639.4306656712783</v>
+        <v>639.3692945542068</v>
       </c>
     </row>
     <row r="95">
@@ -824,7 +824,7 @@
         <v>45536.0</v>
       </c>
       <c r="B95" t="n">
-        <v>655.7271599308125</v>
+        <v>655.6857810627944</v>
       </c>
     </row>
     <row r="96">
@@ -832,7 +832,7 @@
         <v>45566.0</v>
       </c>
       <c r="B96" t="n">
-        <v>673.8278247410053</v>
+        <v>673.8179084795921</v>
       </c>
     </row>
     <row r="97">
@@ -840,7 +840,7 @@
         <v>45597.0</v>
       </c>
       <c r="B97" t="n">
-        <v>687.6932587395717</v>
+        <v>687.6985929334779</v>
       </c>
     </row>
     <row r="98">
@@ -848,7 +848,7 @@
         <v>45627.0</v>
       </c>
       <c r="B98" t="n">
-        <v>704.4280707938321</v>
+        <v>704.4532828743402</v>
       </c>
     </row>
     <row r="99">
@@ -856,7 +856,7 @@
         <v>45658.0</v>
       </c>
       <c r="B99" t="n">
-        <v>709.4317249479983</v>
+        <v>709.4567923294517</v>
       </c>
     </row>
     <row r="100">
@@ -864,7 +864,7 @@
         <v>45689.0</v>
       </c>
       <c r="B100" t="n">
-        <v>735.6462357734048</v>
+        <v>735.7249639537996</v>
       </c>
     </row>
     <row r="101">
@@ -872,7 +872,7 @@
         <v>45717.0</v>
       </c>
       <c r="B101" t="n">
-        <v>761.6589731753576</v>
+        <v>761.8038669475166</v>
       </c>
     </row>
     <row r="102">
@@ -880,7 +880,7 @@
         <v>45748.0</v>
       </c>
       <c r="B102" t="n">
-        <v>769.2846967406792</v>
+        <v>769.4365123730051</v>
       </c>
     </row>
     <row r="103">
@@ -888,7 +888,7 @@
         <v>45778.0</v>
       </c>
       <c r="B103" t="n">
-        <v>761.833368398844</v>
+        <v>761.9582763540426</v>
       </c>
     </row>
     <row r="104">
@@ -896,7 +896,7 @@
         <v>45809.0</v>
       </c>
       <c r="B104" t="n">
-        <v>779.6140683856953</v>
+        <v>779.9085777086879</v>
       </c>
     </row>
   </sheetData>
